--- a/jmeter/prepare_sensor_test_data.xlsx
+++ b/jmeter/prepare_sensor_test_data.xlsx
@@ -376,10 +376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -417,8 +418,8 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <f ca="1">(VLOOKUP(A2,real,IF(C2="n",2,IF(C2="e",3,IF(C2="s",4,5))))+(RAND()-0.5)*0.1)*(1+E2*1.25)</f>
-        <v>67.448518070568895</v>
+        <f t="shared" ref="D2:D65" ca="1" si="0">(VLOOKUP(A2,real,IF(C2="n",2,IF(C2="e",3,IF(C2="s",4,5))))+(RAND()-0.5)*0.1)*(1+E2*1.25)</f>
+        <v>67.389468030833996</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -442,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1635509812</v>
       </c>
@@ -453,8 +454,8 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <f ca="1">(VLOOKUP(A3,real,IF(C3="n",2,IF(C3="e",3,IF(C3="s",4,5))))+(RAND()-0.5)*0.1)*(1+E3*1.25)</f>
-        <v>89.967290906303248</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>90.061793420403859</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -481,7 +482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1635509812</v>
       </c>
@@ -492,8 +493,8 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <f ca="1">(VLOOKUP(A4,real,IF(C4="n",2,IF(C4="e",3,IF(C4="s",4,5))))+(RAND()-0.5)*0.1)*(1+E4*1.25)</f>
-        <v>74.24219790708905</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74.256316463660056</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -520,7 +521,7 @@
         <v>26.745076993585347</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1635509812</v>
       </c>
@@ -531,8 +532,8 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <f ca="1">(VLOOKUP(A5,real,IF(C5="n",2,IF(C5="e",3,IF(C5="s",4,5))))+(RAND()-0.5)*0.1)*(1+E5*1.25)</f>
-        <v>60.825654552797516</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60.741727951903307</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -570,8 +571,8 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f ca="1">(VLOOKUP(A6,real,IF(C6="n",2,IF(C6="e",3,IF(C6="s",4,5))))+(RAND()-0.5)*0.1)*(1+E6*1.25)</f>
-        <v>30.021970900430127</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.97819774436072</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -598,7 +599,7 @@
         <v>27.249720701866625</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1635509812</v>
       </c>
@@ -609,8 +610,8 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f ca="1">(VLOOKUP(A7,real,IF(C7="n",2,IF(C7="e",3,IF(C7="s",4,5))))+(RAND()-0.5)*0.1)*(1+E7*1.25)</f>
-        <v>40.041668825082716</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.039671747132054</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -639,7 +640,7 @@
         <v>26.995450945809271</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1635509812</v>
       </c>
@@ -650,8 +651,8 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <f ca="1">(VLOOKUP(A8,real,IF(C8="n",2,IF(C8="e",3,IF(C8="s",4,5))))+(RAND()-0.5)*0.1)*(1+E8*1.25)</f>
-        <v>32.985444387612311</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.998245462273154</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -678,7 +679,7 @@
         <v>27.462929149426277</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1635509812</v>
       </c>
@@ -689,8 +690,8 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f ca="1">(VLOOKUP(A9,real,IF(C9="n",2,IF(C9="e",3,IF(C9="s",4,5))))+(RAND()-0.5)*0.1)*(1+E9*1.25)</f>
-        <v>27.014427869733275</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.022107633575153</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -728,8 +729,8 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <f ca="1">(VLOOKUP(A10,real,IF(C10="n",2,IF(C10="e",3,IF(C10="s",4,5))))+(RAND()-0.5)*0.1)*(1+E10*1.25)</f>
-        <v>30.043110668447365</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.988096244556846</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -756,7 +757,7 @@
         <v>27.404629837651118</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1635509812</v>
       </c>
@@ -767,8 +768,8 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <f ca="1">(VLOOKUP(A11,real,IF(C11="n",2,IF(C11="e",3,IF(C11="s",4,5))))+(RAND()-0.5)*0.1)*(1+E11*1.25)</f>
-        <v>40.038522642849102</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.01945494952755</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -795,7 +796,7 @@
         <v>27.121490594822056</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1635509812</v>
       </c>
@@ -806,8 +807,8 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <f ca="1">(VLOOKUP(A12,real,IF(C12="n",2,IF(C12="e",3,IF(C12="s",4,5))))+(RAND()-0.5)*0.1)*(1+E12*1.25)</f>
-        <v>32.9998139393659</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.987174985925883</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -834,7 +835,7 @@
         <v>26.968703164342926</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1635509812</v>
       </c>
@@ -845,8 +846,8 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <f ca="1">(VLOOKUP(A13,real,IF(C13="n",2,IF(C13="e",3,IF(C13="s",4,5))))+(RAND()-0.5)*0.1)*(1+E13*1.25)</f>
-        <v>27.017370947277627</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.974177210293774</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -884,8 +885,8 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <f ca="1">(VLOOKUP(A14,real,IF(C14="n",2,IF(C14="e",3,IF(C14="s",4,5))))+(RAND()-0.5)*0.1)*(1+E14*1.25)</f>
-        <v>30.025320345356668</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.967095943299579</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -912,7 +913,7 @@
         <v>27.098029606547655</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1635509812</v>
       </c>
@@ -923,8 +924,8 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <f ca="1">(VLOOKUP(A15,real,IF(C15="n",2,IF(C15="e",3,IF(C15="s",4,5))))+(RAND()-0.5)*0.1)*(1+E15*1.25)</f>
-        <v>40.025195031623461</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.010329240539292</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -951,7 +952,7 @@
         <v>26.738108924265759</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1635509812</v>
       </c>
@@ -962,8 +963,8 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <f ca="1">(VLOOKUP(A16,real,IF(C16="n",2,IF(C16="e",3,IF(C16="s",4,5))))+(RAND()-0.5)*0.1)*(1+E16*1.25)</f>
-        <v>33.002473757645348</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.021892908293623</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -990,7 +991,7 @@
         <v>26.355385062612587</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1635509812</v>
       </c>
@@ -1001,8 +1002,8 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <f ca="1">(VLOOKUP(A17,real,IF(C17="n",2,IF(C17="e",3,IF(C17="s",4,5))))+(RAND()-0.5)*0.1)*(1+E17*1.25)</f>
-        <v>26.956091995945776</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.010174200152868</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1041,8 +1042,8 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <f ca="1">(VLOOKUP(A18,real,IF(C18="n",2,IF(C18="e",3,IF(C18="s",4,5))))+(RAND()-0.5)*0.1)*(1+E18*1.25)</f>
-        <v>67.719522169253466</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>67.64748739162718</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1063,9 +1064,9 @@
         <v>26.829853725294036</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" ref="A19:A82" si="0">IF(B18=43,A18+1,A18)</f>
+        <f t="shared" ref="A19:A82" si="1">IF(B18=43,A18+1,A18)</f>
         <v>1635509813</v>
       </c>
       <c r="B19">
@@ -1075,8 +1076,8 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <f ca="1">(VLOOKUP(A19,real,IF(C19="n",2,IF(C19="e",3,IF(C19="s",4,5))))+(RAND()-0.5)*0.1)*(1+E19*1.25)</f>
-        <v>89.906294625935658</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89.912845487297787</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1097,9 +1098,9 @@
         <v>27.278475813975664</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B20">
@@ -1109,8 +1110,8 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <f ca="1">(VLOOKUP(A20,real,IF(C20="n",2,IF(C20="e",3,IF(C20="s",4,5))))+(RAND()-0.5)*0.1)*(1+E20*1.25)</f>
-        <v>75.187372897502513</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75.098925455962643</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1131,9 +1132,9 @@
         <v>27.260577139866154</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B21">
@@ -1143,8 +1144,8 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <f ca="1">(VLOOKUP(A21,real,IF(C21="n",2,IF(C21="e",3,IF(C21="s",4,5))))+(RAND()-0.5)*0.1)*(1+E21*1.25)</f>
-        <v>60.114825587614547</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60.184741358035218</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1167,7 +1168,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B22">
@@ -1177,16 +1178,16 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <f ca="1">(VLOOKUP(A22,real,IF(C22="n",2,IF(C22="e",3,IF(C22="s",4,5))))+(RAND()-0.5)*0.1)*(1+E22*1.25)</f>
-        <v>30.026546460186921</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.059990042184989</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B23">
@@ -1196,16 +1197,16 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <f ca="1">(VLOOKUP(A23,real,IF(C23="n",2,IF(C23="e",3,IF(C23="s",4,5))))+(RAND()-0.5)*0.1)*(1+E23*1.25)</f>
-        <v>39.962600044680677</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39.969838071801512</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B24">
@@ -1215,16 +1216,16 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <f ca="1">(VLOOKUP(A24,real,IF(C24="n",2,IF(C24="e",3,IF(C24="s",4,5))))+(RAND()-0.5)*0.1)*(1+E24*1.25)</f>
-        <v>33.339931697002605</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.371073850079156</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B25">
@@ -1234,8 +1235,8 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <f ca="1">(VLOOKUP(A25,real,IF(C25="n",2,IF(C25="e",3,IF(C25="s",4,5))))+(RAND()-0.5)*0.1)*(1+E25*1.25)</f>
-        <v>26.705817894119811</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.699128143035999</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1243,7 +1244,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B26">
@@ -1253,16 +1254,16 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <f ca="1">(VLOOKUP(A26,real,IF(C26="n",2,IF(C26="e",3,IF(C26="s",4,5))))+(RAND()-0.5)*0.1)*(1+E26*1.25)</f>
-        <v>30.086810138115784</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.09885795627067</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B27">
@@ -1272,16 +1273,16 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <f ca="1">(VLOOKUP(A27,real,IF(C27="n",2,IF(C27="e",3,IF(C27="s",4,5))))+(RAND()-0.5)*0.1)*(1+E27*1.25)</f>
-        <v>39.901549302924195</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39.936774975503006</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B28">
@@ -1291,16 +1292,16 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <f ca="1">(VLOOKUP(A28,real,IF(C28="n",2,IF(C28="e",3,IF(C28="s",4,5))))+(RAND()-0.5)*0.1)*(1+E28*1.25)</f>
-        <v>33.369434843132645</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.338463677340854</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B29">
@@ -1310,8 +1311,8 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <f ca="1">(VLOOKUP(A29,real,IF(C29="n",2,IF(C29="e",3,IF(C29="s",4,5))))+(RAND()-0.5)*0.1)*(1+E29*1.25)</f>
-        <v>26.731455529374966</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.784962846971283</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1319,7 +1320,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B30">
@@ -1329,16 +1330,16 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <f ca="1">(VLOOKUP(A30,real,IF(C30="n",2,IF(C30="e",3,IF(C30="s",4,5))))+(RAND()-0.5)*0.1)*(1+E30*1.25)</f>
-        <v>30.011416187542629</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.057912211278875</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B31">
@@ -1348,16 +1349,16 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <f ca="1">(VLOOKUP(A31,real,IF(C31="n",2,IF(C31="e",3,IF(C31="s",4,5))))+(RAND()-0.5)*0.1)*(1+E31*1.25)</f>
-        <v>39.906446174007606</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39.94042217122842</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B32">
@@ -1367,16 +1368,16 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <f ca="1">(VLOOKUP(A32,real,IF(C32="n",2,IF(C32="e",3,IF(C32="s",4,5))))+(RAND()-0.5)*0.1)*(1+E32*1.25)</f>
-        <v>33.407691353621281</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.353022666867318</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509813</v>
       </c>
       <c r="B33">
@@ -1386,8 +1387,8 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <f ca="1">(VLOOKUP(A33,real,IF(C33="n",2,IF(C33="e",3,IF(C33="s",4,5))))+(RAND()-0.5)*0.1)*(1+E33*1.25)</f>
-        <v>26.715503595635749</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.771350885839315</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1395,7 +1396,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B34">
@@ -1405,16 +1406,16 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <f ca="1">(VLOOKUP(A34,real,IF(C34="n",2,IF(C34="e",3,IF(C34="s",4,5))))+(RAND()-0.5)*0.1)*(1+E34*1.25)</f>
-        <v>67.974521744835798</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>67.874518628969483</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B35">
@@ -1424,16 +1425,16 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <f ca="1">(VLOOKUP(A35,real,IF(C35="n",2,IF(C35="e",3,IF(C35="s",4,5))))+(RAND()-0.5)*0.1)*(1+E35*1.25)</f>
-        <v>90.636023995913547</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>90.51839946168711</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B36">
@@ -1443,16 +1444,16 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <f ca="1">(VLOOKUP(A36,real,IF(C36="n",2,IF(C36="e",3,IF(C36="s",4,5))))+(RAND()-0.5)*0.1)*(1+E36*1.25)</f>
-        <v>74.601084821175348</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74.467953228139692</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B37">
@@ -1462,8 +1463,8 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <f ca="1">(VLOOKUP(A37,real,IF(C37="n",2,IF(C37="e",3,IF(C37="s",4,5))))+(RAND()-0.5)*0.1)*(1+E37*1.25)</f>
-        <v>60.763564200430608</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60.627052701351786</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1471,7 +1472,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B38">
@@ -1481,16 +1482,16 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <f ca="1">(VLOOKUP(A38,real,IF(C38="n",2,IF(C38="e",3,IF(C38="s",4,5))))+(RAND()-0.5)*0.1)*(1+E38*1.25)</f>
-        <v>30.208989545932262</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.203495604354728</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B39">
@@ -1500,16 +1501,16 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <f ca="1">(VLOOKUP(A39,real,IF(C39="n",2,IF(C39="e",3,IF(C39="s",4,5))))+(RAND()-0.5)*0.1)*(1+E39*1.25)</f>
-        <v>40.31303671596077</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.285834356443374</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B40">
@@ -1519,16 +1520,16 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <f ca="1">(VLOOKUP(A40,real,IF(C40="n",2,IF(C40="e",3,IF(C40="s",4,5))))+(RAND()-0.5)*0.1)*(1+E40*1.25)</f>
-        <v>33.154768897588987</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.130797644782199</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B41">
@@ -1538,8 +1539,8 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <f ca="1">(VLOOKUP(A41,real,IF(C41="n",2,IF(C41="e",3,IF(C41="s",4,5))))+(RAND()-0.5)*0.1)*(1+E41*1.25)</f>
-        <v>26.990048251641166</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.964565861976638</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1547,7 +1548,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B42">
@@ -1557,16 +1558,16 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <f ca="1">(VLOOKUP(A42,real,IF(C42="n",2,IF(C42="e",3,IF(C42="s",4,5))))+(RAND()-0.5)*0.1)*(1+E42*1.25)</f>
-        <v>30.15064608727128</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.196601525527612</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B43">
@@ -1576,16 +1577,16 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <f ca="1">(VLOOKUP(A43,real,IF(C43="n",2,IF(C43="e",3,IF(C43="s",4,5))))+(RAND()-0.5)*0.1)*(1+E43*1.25)</f>
-        <v>40.278710026028726</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.261030320766181</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B44">
@@ -1595,16 +1596,16 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <f ca="1">(VLOOKUP(A44,real,IF(C44="n",2,IF(C44="e",3,IF(C44="s",4,5))))+(RAND()-0.5)*0.1)*(1+E44*1.25)</f>
-        <v>33.172591310762215</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.181331724513129</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B45">
@@ -1614,8 +1615,8 @@
         <v>7</v>
       </c>
       <c r="D45">
-        <f ca="1">(VLOOKUP(A45,real,IF(C45="n",2,IF(C45="e",3,IF(C45="s",4,5))))+(RAND()-0.5)*0.1)*(1+E45*1.25)</f>
-        <v>26.94568977237115</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.972153447991371</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1623,7 +1624,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B46">
@@ -1633,16 +1634,16 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <f ca="1">(VLOOKUP(A46,real,IF(C46="n",2,IF(C46="e",3,IF(C46="s",4,5))))+(RAND()-0.5)*0.1)*(1+E46*1.25)</f>
-        <v>30.214108364284233</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.123712583421693</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B47">
@@ -1652,16 +1653,16 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <f ca="1">(VLOOKUP(A47,real,IF(C47="n",2,IF(C47="e",3,IF(C47="s",4,5))))+(RAND()-0.5)*0.1)*(1+E47*1.25)</f>
-        <v>40.225275486118598</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.294203265050051</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B48">
@@ -1671,16 +1672,16 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <f ca="1">(VLOOKUP(A48,real,IF(C48="n",2,IF(C48="e",3,IF(C48="s",4,5))))+(RAND()-0.5)*0.1)*(1+E48*1.25)</f>
-        <v>33.164278475559115</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.133014209003036</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509814</v>
       </c>
       <c r="B49">
@@ -1690,8 +1691,8 @@
         <v>7</v>
       </c>
       <c r="D49">
-        <f ca="1">(VLOOKUP(A49,real,IF(C49="n",2,IF(C49="e",3,IF(C49="s",4,5))))+(RAND()-0.5)*0.1)*(1+E49*1.25)</f>
-        <v>26.960937450836997</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.953244665342229</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1699,7 +1700,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B50">
@@ -1709,16 +1710,16 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <f ca="1">(VLOOKUP(A50,real,IF(C50="n",2,IF(C50="e",3,IF(C50="s",4,5))))+(RAND()-0.5)*0.1)*(1+E50*1.25)</f>
-        <v>68.505524702154361</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68.590180863867729</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B51">
@@ -1728,16 +1729,16 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <f ca="1">(VLOOKUP(A51,real,IF(C51="n",2,IF(C51="e",3,IF(C51="s",4,5))))+(RAND()-0.5)*0.1)*(1+E51*1.25)</f>
-        <v>89.781648631338385</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89.790315188407845</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B52">
@@ -1747,16 +1748,16 @@
         <v>6</v>
       </c>
       <c r="D52">
-        <f ca="1">(VLOOKUP(A52,real,IF(C52="n",2,IF(C52="e",3,IF(C52="s",4,5))))+(RAND()-0.5)*0.1)*(1+E52*1.25)</f>
-        <v>74.641986606433974</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74.668049145830608</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B53">
@@ -1766,8 +1767,8 @@
         <v>7</v>
       </c>
       <c r="D53">
-        <f ca="1">(VLOOKUP(A53,real,IF(C53="n",2,IF(C53="e",3,IF(C53="s",4,5))))+(RAND()-0.5)*0.1)*(1+E53*1.25)</f>
-        <v>61.207143693336207</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61.33065595912845</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1775,7 +1776,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B54">
@@ -1785,16 +1786,16 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <f ca="1">(VLOOKUP(A54,real,IF(C54="n",2,IF(C54="e",3,IF(C54="s",4,5))))+(RAND()-0.5)*0.1)*(1+E54*1.25)</f>
-        <v>30.446363256807231</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.475751312870699</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B55">
@@ -1804,16 +1805,16 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <f ca="1">(VLOOKUP(A55,real,IF(C55="n",2,IF(C55="e",3,IF(C55="s",4,5))))+(RAND()-0.5)*0.1)*(1+E55*1.25)</f>
-        <v>39.872589884129034</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39.930452953698065</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B56">
@@ -1823,16 +1824,16 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <f ca="1">(VLOOKUP(A56,real,IF(C56="n",2,IF(C56="e",3,IF(C56="s",4,5))))+(RAND()-0.5)*0.1)*(1+E56*1.25)</f>
-        <v>33.167012868998313</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.095339778398348</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B57">
@@ -1842,8 +1843,8 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <f ca="1">(VLOOKUP(A57,real,IF(C57="n",2,IF(C57="e",3,IF(C57="s",4,5))))+(RAND()-0.5)*0.1)*(1+E57*1.25)</f>
-        <v>27.276347618979106</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.219086927510325</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1851,7 +1852,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B58">
@@ -1861,16 +1862,16 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <f ca="1">(VLOOKUP(A58,real,IF(C58="n",2,IF(C58="e",3,IF(C58="s",4,5))))+(RAND()-0.5)*0.1)*(1+E58*1.25)</f>
-        <v>30.506159723405851</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.47057239506746</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B59">
@@ -1880,16 +1881,16 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <f ca="1">(VLOOKUP(A59,real,IF(C59="n",2,IF(C59="e",3,IF(C59="s",4,5))))+(RAND()-0.5)*0.1)*(1+E59*1.25)</f>
-        <v>39.913138062317479</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39.871958600480248</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B60">
@@ -1899,16 +1900,16 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <f ca="1">(VLOOKUP(A60,real,IF(C60="n",2,IF(C60="e",3,IF(C60="s",4,5))))+(RAND()-0.5)*0.1)*(1+E60*1.25)</f>
-        <v>33.189609718678092</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.102035936207258</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B61">
@@ -1918,8 +1919,8 @@
         <v>7</v>
       </c>
       <c r="D61">
-        <f ca="1">(VLOOKUP(A61,real,IF(C61="n",2,IF(C61="e",3,IF(C61="s",4,5))))+(RAND()-0.5)*0.1)*(1+E61*1.25)</f>
-        <v>27.292983684565026</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.236050015835684</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1927,7 +1928,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B62">
@@ -1937,16 +1938,16 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <f ca="1">(VLOOKUP(A62,real,IF(C62="n",2,IF(C62="e",3,IF(C62="s",4,5))))+(RAND()-0.5)*0.1)*(1+E62*1.25)</f>
-        <v>30.504948759895285</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.512932393236966</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B63">
@@ -1956,16 +1957,16 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <f ca="1">(VLOOKUP(A63,real,IF(C63="n",2,IF(C63="e",3,IF(C63="s",4,5))))+(RAND()-0.5)*0.1)*(1+E63*1.25)</f>
-        <v>39.933049061406578</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39.858202154237979</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B64">
@@ -1975,16 +1976,16 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <f ca="1">(VLOOKUP(A64,real,IF(C64="n",2,IF(C64="e",3,IF(C64="s",4,5))))+(RAND()-0.5)*0.1)*(1+E64*1.25)</f>
-        <v>33.104695246788168</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.172781685243379</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509815</v>
       </c>
       <c r="B65">
@@ -1994,8 +1995,8 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <f ca="1">(VLOOKUP(A65,real,IF(C65="n",2,IF(C65="e",3,IF(C65="s",4,5))))+(RAND()-0.5)*0.1)*(1+E65*1.25)</f>
-        <v>27.295897455502605</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.269935622128827</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2003,7 +2004,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B66">
@@ -2013,16 +2014,16 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <f ca="1">(VLOOKUP(A66,real,IF(C66="n",2,IF(C66="e",3,IF(C66="s",4,5))))+(RAND()-0.5)*0.1)*(1+E66*1.25)</f>
-        <v>69.576133606778527</v>
+        <f t="shared" ref="D66:D129" ca="1" si="2">(VLOOKUP(A66,real,IF(C66="n",2,IF(C66="e",3,IF(C66="s",4,5))))+(RAND()-0.5)*0.1)*(1+E66*1.25)</f>
+        <v>69.379439565854739</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B67">
@@ -2032,16 +2033,16 @@
         <v>5</v>
       </c>
       <c r="D67">
-        <f ca="1">(VLOOKUP(A67,real,IF(C67="n",2,IF(C67="e",3,IF(C67="s",4,5))))+(RAND()-0.5)*0.1)*(1+E67*1.25)</f>
-        <v>90.700431676506909</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>90.761038903530107</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B68">
@@ -2051,16 +2052,16 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <f ca="1">(VLOOKUP(A68,real,IF(C68="n",2,IF(C68="e",3,IF(C68="s",4,5))))+(RAND()-0.5)*0.1)*(1+E68*1.25)</f>
-        <v>74.149477549757734</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74.146603637617744</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B69">
@@ -2070,8 +2071,8 @@
         <v>7</v>
       </c>
       <c r="D69">
-        <f ca="1">(VLOOKUP(A69,real,IF(C69="n",2,IF(C69="e",3,IF(C69="s",4,5))))+(RAND()-0.5)*0.1)*(1+E69*1.25)</f>
-        <v>60.819017351343732</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.810105485500742</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2079,7 +2080,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B70">
@@ -2089,16 +2090,16 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <f ca="1">(VLOOKUP(A70,real,IF(C70="n",2,IF(C70="e",3,IF(C70="s",4,5))))+(RAND()-0.5)*0.1)*(1+E70*1.25)</f>
-        <v>30.843299835690054</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.875021190019766</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B71">
@@ -2108,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <f ca="1">(VLOOKUP(A71,real,IF(C71="n",2,IF(C71="e",3,IF(C71="s",4,5))))+(RAND()-0.5)*0.1)*(1+E71*1.25)</f>
-        <v>40.310371289282855</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.291874696875766</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B72">
@@ -2127,16 +2128,16 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <f ca="1">(VLOOKUP(A72,real,IF(C72="n",2,IF(C72="e",3,IF(C72="s",4,5))))+(RAND()-0.5)*0.1)*(1+E72*1.25)</f>
-        <v>32.894699749912064</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.895568908921533</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B73">
@@ -2146,8 +2147,8 @@
         <v>7</v>
       </c>
       <c r="D73">
-        <f ca="1">(VLOOKUP(A73,real,IF(C73="n",2,IF(C73="e",3,IF(C73="s",4,5))))+(RAND()-0.5)*0.1)*(1+E73*1.25)</f>
-        <v>27.029568791532938</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.015906282906244</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2155,7 +2156,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B74">
@@ -2165,16 +2166,16 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <f ca="1">(VLOOKUP(A74,real,IF(C74="n",2,IF(C74="e",3,IF(C74="s",4,5))))+(RAND()-0.5)*0.1)*(1+E74*1.25)</f>
-        <v>30.900935528722215</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.839800992959358</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B75">
@@ -2184,16 +2185,16 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <f ca="1">(VLOOKUP(A75,real,IF(C75="n",2,IF(C75="e",3,IF(C75="s",4,5))))+(RAND()-0.5)*0.1)*(1+E75*1.25)</f>
-        <v>40.28797410569355</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.353835282051357</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B76">
@@ -2203,16 +2204,16 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <f ca="1">(VLOOKUP(A76,real,IF(C76="n",2,IF(C76="e",3,IF(C76="s",4,5))))+(RAND()-0.5)*0.1)*(1+E76*1.25)</f>
-        <v>32.87778230317646</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.890687357138468</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B77">
@@ -2222,8 +2223,8 @@
         <v>7</v>
       </c>
       <c r="D77">
-        <f ca="1">(VLOOKUP(A77,real,IF(C77="n",2,IF(C77="e",3,IF(C77="s",4,5))))+(RAND()-0.5)*0.1)*(1+E77*1.25)</f>
-        <v>26.992350614001872</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>26.986950234495836</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2231,7 +2232,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B78">
@@ -2241,16 +2242,16 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <f ca="1">(VLOOKUP(A78,real,IF(C78="n",2,IF(C78="e",3,IF(C78="s",4,5))))+(RAND()-0.5)*0.1)*(1+E78*1.25)</f>
-        <v>30.845318907392322</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.895836882021449</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B79">
@@ -2260,16 +2261,16 @@
         <v>5</v>
       </c>
       <c r="D79">
-        <f ca="1">(VLOOKUP(A79,real,IF(C79="n",2,IF(C79="e",3,IF(C79="s",4,5))))+(RAND()-0.5)*0.1)*(1+E79*1.25)</f>
-        <v>40.332203200695602</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.352704464084788</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B80">
@@ -2279,16 +2280,16 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <f ca="1">(VLOOKUP(A80,real,IF(C80="n",2,IF(C80="e",3,IF(C80="s",4,5))))+(RAND()-0.5)*0.1)*(1+E80*1.25)</f>
-        <v>32.91252350472805</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.965764061064917</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509816</v>
       </c>
       <c r="B81">
@@ -2298,8 +2299,8 @@
         <v>7</v>
       </c>
       <c r="D81">
-        <f ca="1">(VLOOKUP(A81,real,IF(C81="n",2,IF(C81="e",3,IF(C81="s",4,5))))+(RAND()-0.5)*0.1)*(1+E81*1.25)</f>
-        <v>26.971284113893709</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.011780464513944</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2307,7 +2308,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1635509817</v>
       </c>
       <c r="B82">
@@ -2317,16 +2318,16 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <f ca="1">(VLOOKUP(A82,real,IF(C82="n",2,IF(C82="e",3,IF(C82="s",4,5))))+(RAND()-0.5)*0.1)*(1+E82*1.25)</f>
-        <v>69.954898454397963</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70.098326120257198</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" ref="A83:A146" si="1">IF(B82=43,A82+1,A82)</f>
+        <f t="shared" ref="A83:A146" si="3">IF(B82=43,A82+1,A82)</f>
         <v>1635509817</v>
       </c>
       <c r="B83">
@@ -2336,16 +2337,16 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <f ca="1">(VLOOKUP(A83,real,IF(C83="n",2,IF(C83="e",3,IF(C83="s",4,5))))+(RAND()-0.5)*0.1)*(1+E83*1.25)</f>
-        <v>91.970468329417457</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>91.906530514654307</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B84">
@@ -2355,16 +2356,16 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <f ca="1">(VLOOKUP(A84,real,IF(C84="n",2,IF(C84="e",3,IF(C84="s",4,5))))+(RAND()-0.5)*0.1)*(1+E84*1.25)</f>
-        <v>73.765955819410664</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>73.65960672104265</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B85">
@@ -2374,8 +2375,8 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <f ca="1">(VLOOKUP(A85,real,IF(C85="n",2,IF(C85="e",3,IF(C85="s",4,5))))+(RAND()-0.5)*0.1)*(1+E85*1.25)</f>
-        <v>61.702181774415116</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>61.817366010844822</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2383,7 +2384,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B86">
@@ -2393,16 +2394,16 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <f ca="1">(VLOOKUP(A86,real,IF(C86="n",2,IF(C86="e",3,IF(C86="s",4,5))))+(RAND()-0.5)*0.1)*(1+E86*1.25)</f>
-        <v>31.101146101727135</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31.167721347556963</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B87">
@@ -2412,16 +2413,16 @@
         <v>5</v>
       </c>
       <c r="D87">
-        <f ca="1">(VLOOKUP(A87,real,IF(C87="n",2,IF(C87="e",3,IF(C87="s",4,5))))+(RAND()-0.5)*0.1)*(1+E87*1.25)</f>
-        <v>40.841848290538898</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.853868482193612</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B88">
@@ -2431,16 +2432,16 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <f ca="1">(VLOOKUP(A88,real,IF(C88="n",2,IF(C88="e",3,IF(C88="s",4,5))))+(RAND()-0.5)*0.1)*(1+E88*1.25)</f>
-        <v>32.769118748535981</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.711083785832365</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B89">
@@ -2450,8 +2451,8 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <f ca="1">(VLOOKUP(A89,real,IF(C89="n",2,IF(C89="e",3,IF(C89="s",4,5))))+(RAND()-0.5)*0.1)*(1+E89*1.25)</f>
-        <v>27.500274997281668</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.451528074086696</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2459,7 +2460,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B90">
@@ -2469,16 +2470,16 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <f ca="1">(VLOOKUP(A90,real,IF(C90="n",2,IF(C90="e",3,IF(C90="s",4,5))))+(RAND()-0.5)*0.1)*(1+E90*1.25)</f>
-        <v>31.168618341011797</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31.105232500407361</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B91">
@@ -2488,16 +2489,16 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <f ca="1">(VLOOKUP(A91,real,IF(C91="n",2,IF(C91="e",3,IF(C91="s",4,5))))+(RAND()-0.5)*0.1)*(1+E91*1.25)</f>
-        <v>40.838512016294686</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.875876725390206</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B92">
@@ -2507,16 +2508,16 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <f ca="1">(VLOOKUP(A92,real,IF(C92="n",2,IF(C92="e",3,IF(C92="s",4,5))))+(RAND()-0.5)*0.1)*(1+E92*1.25)</f>
-        <v>32.786491114355492</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.730278998548371</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B93">
@@ -2526,8 +2527,8 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <f ca="1">(VLOOKUP(A93,real,IF(C93="n",2,IF(C93="e",3,IF(C93="s",4,5))))+(RAND()-0.5)*0.1)*(1+E93*1.25)</f>
-        <v>27.446243540553244</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.508813691703882</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2535,7 +2536,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B94">
@@ -2545,16 +2546,16 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <f ca="1">(VLOOKUP(A94,real,IF(C94="n",2,IF(C94="e",3,IF(C94="s",4,5))))+(RAND()-0.5)*0.1)*(1+E94*1.25)</f>
-        <v>31.133911354247701</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31.151573893487278</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B95">
@@ -2564,16 +2565,16 @@
         <v>5</v>
       </c>
       <c r="D95">
-        <f ca="1">(VLOOKUP(A95,real,IF(C95="n",2,IF(C95="e",3,IF(C95="s",4,5))))+(RAND()-0.5)*0.1)*(1+E95*1.25)</f>
-        <v>40.850354876666962</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.813867365397996</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B96">
@@ -2583,16 +2584,16 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <f ca="1">(VLOOKUP(A96,real,IF(C96="n",2,IF(C96="e",3,IF(C96="s",4,5))))+(RAND()-0.5)*0.1)*(1+E96*1.25)</f>
-        <v>32.696301343927374</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.779640728427758</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509817</v>
       </c>
       <c r="B97">
@@ -2602,8 +2603,8 @@
         <v>7</v>
       </c>
       <c r="D97">
-        <f ca="1">(VLOOKUP(A97,real,IF(C97="n",2,IF(C97="e",3,IF(C97="s",4,5))))+(RAND()-0.5)*0.1)*(1+E97*1.25)</f>
-        <v>27.510277030341669</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.506441000632172</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2611,7 +2612,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B98">
@@ -2621,16 +2622,16 @@
         <v>4</v>
       </c>
       <c r="D98">
-        <f ca="1">(VLOOKUP(A98,real,IF(C98="n",2,IF(C98="e",3,IF(C98="s",4,5))))+(RAND()-0.5)*0.1)*(1+E98*1.25)</f>
-        <v>69.836392934687638</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>69.829922321937218</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B99">
@@ -2640,16 +2641,16 @@
         <v>5</v>
       </c>
       <c r="D99">
-        <f ca="1">(VLOOKUP(A99,real,IF(C99="n",2,IF(C99="e",3,IF(C99="s",4,5))))+(RAND()-0.5)*0.1)*(1+E99*1.25)</f>
-        <v>91.766519172438535</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>91.828694296498981</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B100">
@@ -2659,16 +2660,16 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <f ca="1">(VLOOKUP(A100,real,IF(C100="n",2,IF(C100="e",3,IF(C100="s",4,5))))+(RAND()-0.5)*0.1)*(1+E100*1.25)</f>
-        <v>72.640178414358545</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72.539261173419973</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B101">
@@ -2678,8 +2679,8 @@
         <v>7</v>
       </c>
       <c r="D101">
-        <f ca="1">(VLOOKUP(A101,real,IF(C101="n",2,IF(C101="e",3,IF(C101="s",4,5))))+(RAND()-0.5)*0.1)*(1+E101*1.25)</f>
-        <v>60.973777727133438</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.959973499030404</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2687,7 +2688,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B102">
@@ -2697,16 +2698,16 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <f ca="1">(VLOOKUP(A102,real,IF(C102="n",2,IF(C102="e",3,IF(C102="s",4,5))))+(RAND()-0.5)*0.1)*(1+E102*1.25)</f>
-        <v>30.987660053061283</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31.054619026817409</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B103">
@@ -2716,16 +2717,16 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <f ca="1">(VLOOKUP(A103,real,IF(C103="n",2,IF(C103="e",3,IF(C103="s",4,5))))+(RAND()-0.5)*0.1)*(1+E103*1.25)</f>
-        <v>40.745376018025723</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.749528186427774</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B104">
@@ -2735,16 +2736,16 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <f ca="1">(VLOOKUP(A104,real,IF(C104="n",2,IF(C104="e",3,IF(C104="s",4,5))))+(RAND()-0.5)*0.1)*(1+E104*1.25)</f>
-        <v>32.209734552330275</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.277197232316141</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B105">
@@ -2754,8 +2755,8 @@
         <v>7</v>
       </c>
       <c r="D105">
-        <f ca="1">(VLOOKUP(A105,real,IF(C105="n",2,IF(C105="e",3,IF(C105="s",4,5))))+(RAND()-0.5)*0.1)*(1+E105*1.25)</f>
-        <v>27.080293196195662</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.128389722323767</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2763,7 +2764,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B106">
@@ -2773,16 +2774,16 @@
         <v>4</v>
       </c>
       <c r="D106">
-        <f ca="1">(VLOOKUP(A106,real,IF(C106="n",2,IF(C106="e",3,IF(C106="s",4,5))))+(RAND()-0.5)*0.1)*(1+E106*1.25)</f>
-        <v>30.979950820731293</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31.015450810481902</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B107">
@@ -2792,16 +2793,16 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <f ca="1">(VLOOKUP(A107,real,IF(C107="n",2,IF(C107="e",3,IF(C107="s",4,5))))+(RAND()-0.5)*0.1)*(1+E107*1.25)</f>
-        <v>40.776038685874035</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.725947147211606</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B108">
@@ -2811,16 +2812,16 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <f ca="1">(VLOOKUP(A108,real,IF(C108="n",2,IF(C108="e",3,IF(C108="s",4,5))))+(RAND()-0.5)*0.1)*(1+E108*1.25)</f>
-        <v>32.248256425171341</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.227812709315948</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B109">
@@ -2830,8 +2831,8 @@
         <v>7</v>
       </c>
       <c r="D109">
-        <f ca="1">(VLOOKUP(A109,real,IF(C109="n",2,IF(C109="e",3,IF(C109="s",4,5))))+(RAND()-0.5)*0.1)*(1+E109*1.25)</f>
-        <v>27.081488392365813</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.090765371794213</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2839,7 +2840,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B110">
@@ -2849,16 +2850,16 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <f ca="1">(VLOOKUP(A110,real,IF(C110="n",2,IF(C110="e",3,IF(C110="s",4,5))))+(RAND()-0.5)*0.1)*(1+E110*1.25)</f>
-        <v>31.007443425047686</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.98874422904894</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B111">
@@ -2868,16 +2869,16 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <f ca="1">(VLOOKUP(A111,real,IF(C111="n",2,IF(C111="e",3,IF(C111="s",4,5))))+(RAND()-0.5)*0.1)*(1+E111*1.25)</f>
-        <v>40.778366864145212</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.743914862091408</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B112">
@@ -2887,16 +2888,16 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <f ca="1">(VLOOKUP(A112,real,IF(C112="n",2,IF(C112="e",3,IF(C112="s",4,5))))+(RAND()-0.5)*0.1)*(1+E112*1.25)</f>
-        <v>32.21421461341339</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.214473868825756</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509818</v>
       </c>
       <c r="B113">
@@ -2906,8 +2907,8 @@
         <v>7</v>
       </c>
       <c r="D113">
-        <f ca="1">(VLOOKUP(A113,real,IF(C113="n",2,IF(C113="e",3,IF(C113="s",4,5))))+(RAND()-0.5)*0.1)*(1+E113*1.25)</f>
-        <v>27.173906275321183</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.124420696840787</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2915,7 +2916,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B114">
@@ -2925,16 +2926,16 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <f ca="1">(VLOOKUP(A114,real,IF(C114="n",2,IF(C114="e",3,IF(C114="s",4,5))))+(RAND()-0.5)*0.1)*(1+E114*1.25)</f>
-        <v>69.206444746736409</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>69.219328573689026</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B115">
@@ -2944,16 +2945,16 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <f ca="1">(VLOOKUP(A115,real,IF(C115="n",2,IF(C115="e",3,IF(C115="s",4,5))))+(RAND()-0.5)*0.1)*(1+E115*1.25)</f>
-        <v>90.771831930707151</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>90.794832247973616</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B116">
@@ -2963,16 +2964,16 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <f ca="1">(VLOOKUP(A116,real,IF(C116="n",2,IF(C116="e",3,IF(C116="s",4,5))))+(RAND()-0.5)*0.1)*(1+E116*1.25)</f>
-        <v>72.724507714159657</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72.914203813743228</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B117">
@@ -2982,8 +2983,8 @@
         <v>7</v>
       </c>
       <c r="D117">
-        <f ca="1">(VLOOKUP(A117,real,IF(C117="n",2,IF(C117="e",3,IF(C117="s",4,5))))+(RAND()-0.5)*0.1)*(1+E117*1.25)</f>
-        <v>61.557169257396467</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>61.7051858511769</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -2991,7 +2992,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B118">
@@ -3001,16 +3002,16 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <f ca="1">(VLOOKUP(A118,real,IF(C118="n",2,IF(C118="e",3,IF(C118="s",4,5))))+(RAND()-0.5)*0.1)*(1+E118*1.25)</f>
-        <v>30.770643020738934</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.701273429099572</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B119">
@@ -3020,16 +3021,16 @@
         <v>5</v>
       </c>
       <c r="D119">
-        <f ca="1">(VLOOKUP(A119,real,IF(C119="n",2,IF(C119="e",3,IF(C119="s",4,5))))+(RAND()-0.5)*0.1)*(1+E119*1.25)</f>
-        <v>40.340258613770494</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.354714309142807</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B120">
@@ -3039,16 +3040,16 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <f ca="1">(VLOOKUP(A120,real,IF(C120="n",2,IF(C120="e",3,IF(C120="s",4,5))))+(RAND()-0.5)*0.1)*(1+E120*1.25)</f>
-        <v>32.351709623237141</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.351090630368141</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B121">
@@ -3058,8 +3059,8 @@
         <v>7</v>
       </c>
       <c r="D121">
-        <f ca="1">(VLOOKUP(A121,real,IF(C121="n",2,IF(C121="e",3,IF(C121="s",4,5))))+(RAND()-0.5)*0.1)*(1+E121*1.25)</f>
-        <v>27.434652857779614</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.441053558094531</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3067,7 +3068,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B122">
@@ -3077,16 +3078,16 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <f ca="1">(VLOOKUP(A122,real,IF(C122="n",2,IF(C122="e",3,IF(C122="s",4,5))))+(RAND()-0.5)*0.1)*(1+E122*1.25)</f>
-        <v>30.716197305581847</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.747815822230077</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B123">
@@ -3096,16 +3097,16 @@
         <v>5</v>
       </c>
       <c r="D123">
-        <f ca="1">(VLOOKUP(A123,real,IF(C123="n",2,IF(C123="e",3,IF(C123="s",4,5))))+(RAND()-0.5)*0.1)*(1+E123*1.25)</f>
-        <v>40.385233425808295</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.403345002275884</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B124">
@@ -3115,16 +3116,16 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <f ca="1">(VLOOKUP(A124,real,IF(C124="n",2,IF(C124="e",3,IF(C124="s",4,5))))+(RAND()-0.5)*0.1)*(1+E124*1.25)</f>
-        <v>32.403223428906834</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.329383929028126</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B125">
@@ -3134,8 +3135,8 @@
         <v>7</v>
       </c>
       <c r="D125">
-        <f ca="1">(VLOOKUP(A125,real,IF(C125="n",2,IF(C125="e",3,IF(C125="s",4,5))))+(RAND()-0.5)*0.1)*(1+E125*1.25)</f>
-        <v>27.376258522106831</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.419358268386528</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3143,7 +3144,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B126">
@@ -3153,16 +3154,16 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <f ca="1">(VLOOKUP(A126,real,IF(C126="n",2,IF(C126="e",3,IF(C126="s",4,5))))+(RAND()-0.5)*0.1)*(1+E126*1.25)</f>
-        <v>30.718694929303254</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.756977131169354</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B127">
@@ -3172,16 +3173,16 @@
         <v>5</v>
       </c>
       <c r="D127">
-        <f ca="1">(VLOOKUP(A127,real,IF(C127="n",2,IF(C127="e",3,IF(C127="s",4,5))))+(RAND()-0.5)*0.1)*(1+E127*1.25)</f>
-        <v>40.425354511585113</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.35036354478018</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B128">
@@ -3191,16 +3192,16 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <f ca="1">(VLOOKUP(A128,real,IF(C128="n",2,IF(C128="e",3,IF(C128="s",4,5))))+(RAND()-0.5)*0.1)*(1+E128*1.25)</f>
-        <v>32.326236605677465</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.388535127594842</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509819</v>
       </c>
       <c r="B129">
@@ -3210,8 +3211,8 @@
         <v>7</v>
       </c>
       <c r="D129">
-        <f ca="1">(VLOOKUP(A129,real,IF(C129="n",2,IF(C129="e",3,IF(C129="s",4,5))))+(RAND()-0.5)*0.1)*(1+E129*1.25)</f>
-        <v>27.372480531438995</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.406005868880694</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3219,7 +3220,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B130">
@@ -3229,16 +3230,16 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <f ca="1">(VLOOKUP(A130,real,IF(C130="n",2,IF(C130="e",3,IF(C130="s",4,5))))+(RAND()-0.5)*0.1)*(1+E130*1.25)</f>
-        <v>69.380965329882741</v>
+        <f t="shared" ref="D130:D193" ca="1" si="4">(VLOOKUP(A130,real,IF(C130="n",2,IF(C130="e",3,IF(C130="s",4,5))))+(RAND()-0.5)*0.1)*(1+E130*1.25)</f>
+        <v>69.352700750575607</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B131">
@@ -3248,16 +3249,16 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <f ca="1">(VLOOKUP(A131,real,IF(C131="n",2,IF(C131="e",3,IF(C131="s",4,5))))+(RAND()-0.5)*0.1)*(1+E131*1.25)</f>
-        <v>89.906529304486384</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>89.78013751460594</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B132">
@@ -3267,16 +3268,16 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <f ca="1">(VLOOKUP(A132,real,IF(C132="n",2,IF(C132="e",3,IF(C132="s",4,5))))+(RAND()-0.5)*0.1)*(1+E132*1.25)</f>
-        <v>73.559647425666839</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>73.63965758994631</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B133">
@@ -3286,8 +3287,8 @@
         <v>7</v>
       </c>
       <c r="D133">
-        <f ca="1">(VLOOKUP(A133,real,IF(C133="n",2,IF(C133="e",3,IF(C133="s",4,5))))+(RAND()-0.5)*0.1)*(1+E133*1.25)</f>
-        <v>60.965488771463079</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60.943543927071815</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -3295,7 +3296,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B134">
@@ -3305,16 +3306,16 @@
         <v>4</v>
       </c>
       <c r="D134">
-        <f ca="1">(VLOOKUP(A134,real,IF(C134="n",2,IF(C134="e",3,IF(C134="s",4,5))))+(RAND()-0.5)*0.1)*(1+E134*1.25)</f>
-        <v>30.761435693044799</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.78483851194208</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B135">
@@ -3324,16 +3325,16 @@
         <v>5</v>
       </c>
       <c r="D135">
-        <f ca="1">(VLOOKUP(A135,real,IF(C135="n",2,IF(C135="e",3,IF(C135="s",4,5))))+(RAND()-0.5)*0.1)*(1+E135*1.25)</f>
-        <v>39.948575441762735</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.956832335713251</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B136">
@@ -3343,16 +3344,16 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <f ca="1">(VLOOKUP(A136,real,IF(C136="n",2,IF(C136="e",3,IF(C136="s",4,5))))+(RAND()-0.5)*0.1)*(1+E136*1.25)</f>
-        <v>32.722268363098621</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32.740749343522033</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B137">
@@ -3362,8 +3363,8 @@
         <v>7</v>
       </c>
       <c r="D137">
-        <f ca="1">(VLOOKUP(A137,real,IF(C137="n",2,IF(C137="e",3,IF(C137="s",4,5))))+(RAND()-0.5)*0.1)*(1+E137*1.25)</f>
-        <v>27.121756710249347</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.116326775467961</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3371,7 +3372,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B138">
@@ -3381,16 +3382,16 @@
         <v>4</v>
       </c>
       <c r="D138">
-        <f ca="1">(VLOOKUP(A138,real,IF(C138="n",2,IF(C138="e",3,IF(C138="s",4,5))))+(RAND()-0.5)*0.1)*(1+E138*1.25)</f>
-        <v>30.762410510981976</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.763404730203238</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B139">
@@ -3400,16 +3401,16 @@
         <v>5</v>
       </c>
       <c r="D139">
-        <f ca="1">(VLOOKUP(A139,real,IF(C139="n",2,IF(C139="e",3,IF(C139="s",4,5))))+(RAND()-0.5)*0.1)*(1+E139*1.25)</f>
-        <v>39.908099634817049</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.892983166607728</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B140">
@@ -3419,16 +3420,16 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <f ca="1">(VLOOKUP(A140,real,IF(C140="n",2,IF(C140="e",3,IF(C140="s",4,5))))+(RAND()-0.5)*0.1)*(1+E140*1.25)</f>
-        <v>32.769404083105734</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32.747970851726144</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B141">
@@ -3438,8 +3439,8 @@
         <v>7</v>
       </c>
       <c r="D141">
-        <f ca="1">(VLOOKUP(A141,real,IF(C141="n",2,IF(C141="e",3,IF(C141="s",4,5))))+(RAND()-0.5)*0.1)*(1+E141*1.25)</f>
-        <v>27.140760381679367</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.169311310354036</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3447,7 +3448,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B142">
@@ -3457,16 +3458,16 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <f ca="1">(VLOOKUP(A142,real,IF(C142="n",2,IF(C142="e",3,IF(C142="s",4,5))))+(RAND()-0.5)*0.1)*(1+E142*1.25)</f>
-        <v>30.788156493416228</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.760760457947526</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B143">
@@ -3476,16 +3477,16 @@
         <v>5</v>
       </c>
       <c r="D143">
-        <f ca="1">(VLOOKUP(A143,real,IF(C143="n",2,IF(C143="e",3,IF(C143="s",4,5))))+(RAND()-0.5)*0.1)*(1+E143*1.25)</f>
-        <v>39.907395406962372</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.942799728238846</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B144">
@@ -3495,16 +3496,16 @@
         <v>6</v>
       </c>
       <c r="D144">
-        <f ca="1">(VLOOKUP(A144,real,IF(C144="n",2,IF(C144="e",3,IF(C144="s",4,5))))+(RAND()-0.5)*0.1)*(1+E144*1.25)</f>
-        <v>32.735313015474219</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32.777165148402133</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509820</v>
       </c>
       <c r="B145">
@@ -3514,8 +3515,8 @@
         <v>7</v>
       </c>
       <c r="D145">
-        <f ca="1">(VLOOKUP(A145,real,IF(C145="n",2,IF(C145="e",3,IF(C145="s",4,5))))+(RAND()-0.5)*0.1)*(1+E145*1.25)</f>
-        <v>27.16646886013811</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.090127753685795</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3523,7 +3524,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1635509821</v>
       </c>
       <c r="B146">
@@ -3533,16 +3534,16 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <f ca="1">(VLOOKUP(A146,real,IF(C146="n",2,IF(C146="e",3,IF(C146="s",4,5))))+(RAND()-0.5)*0.1)*(1+E146*1.25)</f>
-        <v>68.969003128664028</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68.929868732737063</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
-        <f t="shared" ref="A147:A210" si="2">IF(B146=43,A146+1,A146)</f>
+        <f t="shared" ref="A147:A210" si="5">IF(B146=43,A146+1,A146)</f>
         <v>1635509821</v>
       </c>
       <c r="B147">
@@ -3552,16 +3553,16 @@
         <v>5</v>
       </c>
       <c r="D147">
-        <f ca="1">(VLOOKUP(A147,real,IF(C147="n",2,IF(C147="e",3,IF(C147="s",4,5))))+(RAND()-0.5)*0.1)*(1+E147*1.25)</f>
-        <v>89.959552459063161</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>90.051107924981594</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B148">
@@ -3571,16 +3572,16 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <f ca="1">(VLOOKUP(A148,real,IF(C148="n",2,IF(C148="e",3,IF(C148="s",4,5))))+(RAND()-0.5)*0.1)*(1+E148*1.25)</f>
-        <v>74.206149305458439</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74.334698553330497</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B149">
@@ -3590,8 +3591,8 @@
         <v>7</v>
       </c>
       <c r="D149">
-        <f ca="1">(VLOOKUP(A149,real,IF(C149="n",2,IF(C149="e",3,IF(C149="s",4,5))))+(RAND()-0.5)*0.1)*(1+E149*1.25)</f>
-        <v>60.731887187918439</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60.707780221691095</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -3599,7 +3600,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B150">
@@ -3609,16 +3610,16 @@
         <v>4</v>
       </c>
       <c r="D150">
-        <f ca="1">(VLOOKUP(A150,real,IF(C150="n",2,IF(C150="e",3,IF(C150="s",4,5))))+(RAND()-0.5)*0.1)*(1+E150*1.25)</f>
-        <v>30.697690799326516</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.653884494575387</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B151">
@@ -3628,16 +3629,16 @@
         <v>5</v>
       </c>
       <c r="D151">
-        <f ca="1">(VLOOKUP(A151,real,IF(C151="n",2,IF(C151="e",3,IF(C151="s",4,5))))+(RAND()-0.5)*0.1)*(1+E151*1.25)</f>
-        <v>39.967780142230581</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.960961968932445</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B152">
@@ -3647,16 +3648,16 @@
         <v>6</v>
       </c>
       <c r="D152">
-        <f ca="1">(VLOOKUP(A152,real,IF(C152="n",2,IF(C152="e",3,IF(C152="s",4,5))))+(RAND()-0.5)*0.1)*(1+E152*1.25)</f>
-        <v>32.995022313251887</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.003946694328903</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B153">
@@ -3666,8 +3667,8 @@
         <v>7</v>
       </c>
       <c r="D153">
-        <f ca="1">(VLOOKUP(A153,real,IF(C153="n",2,IF(C153="e",3,IF(C153="s",4,5))))+(RAND()-0.5)*0.1)*(1+E153*1.25)</f>
-        <v>26.965048101969664</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.001923460816879</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3675,7 +3676,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B154">
@@ -3685,16 +3686,16 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <f ca="1">(VLOOKUP(A154,real,IF(C154="n",2,IF(C154="e",3,IF(C154="s",4,5))))+(RAND()-0.5)*0.1)*(1+E154*1.25)</f>
-        <v>30.678934344979758</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.663253874046884</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B155">
@@ -3704,16 +3705,16 @@
         <v>5</v>
       </c>
       <c r="D155">
-        <f ca="1">(VLOOKUP(A155,real,IF(C155="n",2,IF(C155="e",3,IF(C155="s",4,5))))+(RAND()-0.5)*0.1)*(1+E155*1.25)</f>
-        <v>39.946393897428912</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.945144069361213</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B156">
@@ -3723,16 +3724,16 @@
         <v>6</v>
       </c>
       <c r="D156">
-        <f ca="1">(VLOOKUP(A156,real,IF(C156="n",2,IF(C156="e",3,IF(C156="s",4,5))))+(RAND()-0.5)*0.1)*(1+E156*1.25)</f>
-        <v>32.991745170521924</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32.998621680253606</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B157">
@@ -3742,8 +3743,8 @@
         <v>7</v>
       </c>
       <c r="D157">
-        <f ca="1">(VLOOKUP(A157,real,IF(C157="n",2,IF(C157="e",3,IF(C157="s",4,5))))+(RAND()-0.5)*0.1)*(1+E157*1.25)</f>
-        <v>27.004579566040377</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.017131193200584</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -3751,7 +3752,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B158">
@@ -3761,16 +3762,16 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <f ca="1">(VLOOKUP(A158,real,IF(C158="n",2,IF(C158="e",3,IF(C158="s",4,5))))+(RAND()-0.5)*0.1)*(1+E158*1.25)</f>
-        <v>30.70818255812625</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.701382144953786</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B159">
@@ -3780,16 +3781,16 @@
         <v>5</v>
       </c>
       <c r="D159">
-        <f ca="1">(VLOOKUP(A159,real,IF(C159="n",2,IF(C159="e",3,IF(C159="s",4,5))))+(RAND()-0.5)*0.1)*(1+E159*1.25)</f>
-        <v>40.018212069014986</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.943355336550788</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B160">
@@ -3799,16 +3800,16 @@
         <v>6</v>
       </c>
       <c r="D160">
-        <f ca="1">(VLOOKUP(A160,real,IF(C160="n",2,IF(C160="e",3,IF(C160="s",4,5))))+(RAND()-0.5)*0.1)*(1+E160*1.25)</f>
-        <v>33.020403357483424</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.009387376422254</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509821</v>
       </c>
       <c r="B161">
@@ -3818,8 +3819,8 @@
         <v>7</v>
       </c>
       <c r="D161">
-        <f ca="1">(VLOOKUP(A161,real,IF(C161="n",2,IF(C161="e",3,IF(C161="s",4,5))))+(RAND()-0.5)*0.1)*(1+E161*1.25)</f>
-        <v>27.013896433086597</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.970506698112274</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3827,7 +3828,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B162">
@@ -3837,16 +3838,16 @@
         <v>4</v>
       </c>
       <c r="D162">
-        <f ca="1">(VLOOKUP(A162,real,IF(C162="n",2,IF(C162="e",3,IF(C162="s",4,5))))+(RAND()-0.5)*0.1)*(1+E162*1.25)</f>
-        <v>70.01140562894571</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70.048208558248746</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B163">
@@ -3856,16 +3857,16 @@
         <v>5</v>
       </c>
       <c r="D163">
-        <f ca="1">(VLOOKUP(A163,real,IF(C163="n",2,IF(C163="e",3,IF(C163="s",4,5))))+(RAND()-0.5)*0.1)*(1+E163*1.25)</f>
-        <v>89.221747218643259</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>89.145598081548314</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B164">
@@ -3875,16 +3876,16 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <f ca="1">(VLOOKUP(A164,real,IF(C164="n",2,IF(C164="e",3,IF(C164="s",4,5))))+(RAND()-0.5)*0.1)*(1+E164*1.25)</f>
-        <v>74.977618149187165</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>75.157090972759448</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B165">
@@ -3894,8 +3895,8 @@
         <v>7</v>
       </c>
       <c r="D165">
-        <f ca="1">(VLOOKUP(A165,real,IF(C165="n",2,IF(C165="e",3,IF(C165="s",4,5))))+(RAND()-0.5)*0.1)*(1+E165*1.25)</f>
-        <v>60.9448533902207</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60.963588594140859</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -3903,7 +3904,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B166">
@@ -3913,16 +3914,16 @@
         <v>4</v>
       </c>
       <c r="D166">
-        <f ca="1">(VLOOKUP(A166,real,IF(C166="n",2,IF(C166="e",3,IF(C166="s",4,5))))+(RAND()-0.5)*0.1)*(1+E166*1.25)</f>
-        <v>31.123723290686449</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.103081917938237</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B167">
@@ -3932,16 +3933,16 @@
         <v>5</v>
       </c>
       <c r="D167">
-        <f ca="1">(VLOOKUP(A167,real,IF(C167="n",2,IF(C167="e",3,IF(C167="s",4,5))))+(RAND()-0.5)*0.1)*(1+E167*1.25)</f>
-        <v>39.643713658232443</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.626453954547628</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B168">
@@ -3951,16 +3952,16 @@
         <v>6</v>
       </c>
       <c r="D168">
-        <f ca="1">(VLOOKUP(A168,real,IF(C168="n",2,IF(C168="e",3,IF(C168="s",4,5))))+(RAND()-0.5)*0.1)*(1+E168*1.25)</f>
-        <v>33.349884021976919</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.354305416468485</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B169">
@@ -3970,8 +3971,8 @@
         <v>7</v>
       </c>
       <c r="D169">
-        <f ca="1">(VLOOKUP(A169,real,IF(C169="n",2,IF(C169="e",3,IF(C169="s",4,5))))+(RAND()-0.5)*0.1)*(1+E169*1.25)</f>
-        <v>27.042084926933423</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.071911889075057</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -3979,7 +3980,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B170">
@@ -3989,16 +3990,16 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <f ca="1">(VLOOKUP(A170,real,IF(C170="n",2,IF(C170="e",3,IF(C170="s",4,5))))+(RAND()-0.5)*0.1)*(1+E170*1.25)</f>
-        <v>31.12812236913199</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.133837116056892</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B171">
@@ -4008,16 +4009,16 @@
         <v>5</v>
       </c>
       <c r="D171">
-        <f ca="1">(VLOOKUP(A171,real,IF(C171="n",2,IF(C171="e",3,IF(C171="s",4,5))))+(RAND()-0.5)*0.1)*(1+E171*1.25)</f>
-        <v>39.597586827077286</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.623561349918205</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B172">
@@ -4027,16 +4028,16 @@
         <v>6</v>
       </c>
       <c r="D172">
-        <f ca="1">(VLOOKUP(A172,real,IF(C172="n",2,IF(C172="e",3,IF(C172="s",4,5))))+(RAND()-0.5)*0.1)*(1+E172*1.25)</f>
-        <v>33.311210882303122</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.397140843970888</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B173">
@@ -4046,8 +4047,8 @@
         <v>7</v>
       </c>
       <c r="D173">
-        <f ca="1">(VLOOKUP(A173,real,IF(C173="n",2,IF(C173="e",3,IF(C173="s",4,5))))+(RAND()-0.5)*0.1)*(1+E173*1.25)</f>
-        <v>27.070314221431701</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.109574990683498</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -4055,7 +4056,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B174">
@@ -4065,16 +4066,16 @@
         <v>4</v>
       </c>
       <c r="D174">
-        <f ca="1">(VLOOKUP(A174,real,IF(C174="n",2,IF(C174="e",3,IF(C174="s",4,5))))+(RAND()-0.5)*0.1)*(1+E174*1.25)</f>
-        <v>31.160409143483239</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.183672087139954</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B175">
@@ -4084,16 +4085,16 @@
         <v>5</v>
       </c>
       <c r="D175">
-        <f ca="1">(VLOOKUP(A175,real,IF(C175="n",2,IF(C175="e",3,IF(C175="s",4,5))))+(RAND()-0.5)*0.1)*(1+E175*1.25)</f>
-        <v>39.650127099519928</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39.652215192462855</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B176">
@@ -4103,16 +4104,16 @@
         <v>6</v>
       </c>
       <c r="D176">
-        <f ca="1">(VLOOKUP(A176,real,IF(C176="n",2,IF(C176="e",3,IF(C176="s",4,5))))+(RAND()-0.5)*0.1)*(1+E176*1.25)</f>
-        <v>33.335441160655201</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.375836513591274</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509822</v>
       </c>
       <c r="B177">
@@ -4122,8 +4123,8 @@
         <v>7</v>
       </c>
       <c r="D177">
-        <f ca="1">(VLOOKUP(A177,real,IF(C177="n",2,IF(C177="e",3,IF(C177="s",4,5))))+(RAND()-0.5)*0.1)*(1+E177*1.25)</f>
-        <v>27.086575466767616</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.089690091243753</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -4131,7 +4132,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B178">
@@ -4141,16 +4142,16 @@
         <v>4</v>
       </c>
       <c r="D178">
-        <f ca="1">(VLOOKUP(A178,real,IF(C178="n",2,IF(C178="e",3,IF(C178="s",4,5))))+(RAND()-0.5)*0.1)*(1+E178*1.25)</f>
-        <v>69.97580473398942</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70.173460598193785</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B179">
@@ -4160,16 +4161,16 @@
         <v>5</v>
       </c>
       <c r="D179">
-        <f ca="1">(VLOOKUP(A179,real,IF(C179="n",2,IF(C179="e",3,IF(C179="s",4,5))))+(RAND()-0.5)*0.1)*(1+E179*1.25)</f>
-        <v>90.055174120465736</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>90.000195726628561</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B180">
@@ -4179,16 +4180,16 @@
         <v>6</v>
       </c>
       <c r="D180">
-        <f ca="1">(VLOOKUP(A180,real,IF(C180="n",2,IF(C180="e",3,IF(C180="s",4,5))))+(RAND()-0.5)*0.1)*(1+E180*1.25)</f>
-        <v>74.32908307367839</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74.420854639445494</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B181">
@@ -4198,8 +4199,8 @@
         <v>7</v>
       </c>
       <c r="D181">
-        <f ca="1">(VLOOKUP(A181,real,IF(C181="n",2,IF(C181="e",3,IF(C181="s",4,5))))+(RAND()-0.5)*0.1)*(1+E181*1.25)</f>
-        <v>60.962579492723798</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>60.868543961341942</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -4207,7 +4208,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B182">
@@ -4217,16 +4218,16 @@
         <v>4</v>
       </c>
       <c r="D182">
-        <f ca="1">(VLOOKUP(A182,real,IF(C182="n",2,IF(C182="e",3,IF(C182="s",4,5))))+(RAND()-0.5)*0.1)*(1+E182*1.25)</f>
-        <v>31.174394810161825</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.180861842349337</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B183">
@@ -4236,16 +4237,16 @@
         <v>5</v>
       </c>
       <c r="D183">
-        <f ca="1">(VLOOKUP(A183,real,IF(C183="n",2,IF(C183="e",3,IF(C183="s",4,5))))+(RAND()-0.5)*0.1)*(1+E183*1.25)</f>
-        <v>40.057725851082701</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40.072159082361985</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B184">
@@ -4255,16 +4256,16 @@
         <v>6</v>
       </c>
       <c r="D184">
-        <f ca="1">(VLOOKUP(A184,real,IF(C184="n",2,IF(C184="e",3,IF(C184="s",4,5))))+(RAND()-0.5)*0.1)*(1+E184*1.25)</f>
-        <v>33.07251102310429</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.022359754278121</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B185">
@@ -4274,8 +4275,8 @@
         <v>7</v>
       </c>
       <c r="D185">
-        <f ca="1">(VLOOKUP(A185,real,IF(C185="n",2,IF(C185="e",3,IF(C185="s",4,5))))+(RAND()-0.5)*0.1)*(1+E185*1.25)</f>
-        <v>27.072874445893408</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.140640258808538</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -4283,7 +4284,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B186">
@@ -4293,16 +4294,16 @@
         <v>4</v>
       </c>
       <c r="D186">
-        <f ca="1">(VLOOKUP(A186,real,IF(C186="n",2,IF(C186="e",3,IF(C186="s",4,5))))+(RAND()-0.5)*0.1)*(1+E186*1.25)</f>
-        <v>31.152095898768334</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.098107771981464</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B187">
@@ -4312,16 +4313,16 @@
         <v>5</v>
       </c>
       <c r="D187">
-        <f ca="1">(VLOOKUP(A187,real,IF(C187="n",2,IF(C187="e",3,IF(C187="s",4,5))))+(RAND()-0.5)*0.1)*(1+E187*1.25)</f>
-        <v>40.06690374797828</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40.087510378248894</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B188">
@@ -4331,16 +4332,16 @@
         <v>6</v>
       </c>
       <c r="D188">
-        <f ca="1">(VLOOKUP(A188,real,IF(C188="n",2,IF(C188="e",3,IF(C188="s",4,5))))+(RAND()-0.5)*0.1)*(1+E188*1.25)</f>
-        <v>32.999984055540665</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.028605026653025</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B189">
@@ -4350,8 +4351,8 @@
         <v>7</v>
       </c>
       <c r="D189">
-        <f ca="1">(VLOOKUP(A189,real,IF(C189="n",2,IF(C189="e",3,IF(C189="s",4,5))))+(RAND()-0.5)*0.1)*(1+E189*1.25)</f>
-        <v>27.068725801751508</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.090974774707455</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -4359,7 +4360,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B190">
@@ -4369,16 +4370,16 @@
         <v>4</v>
       </c>
       <c r="D190">
-        <f ca="1">(VLOOKUP(A190,real,IF(C190="n",2,IF(C190="e",3,IF(C190="s",4,5))))+(RAND()-0.5)*0.1)*(1+E190*1.25)</f>
-        <v>31.149830289809653</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.16375875696102</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B191">
@@ -4388,16 +4389,16 @@
         <v>5</v>
       </c>
       <c r="D191">
-        <f ca="1">(VLOOKUP(A191,real,IF(C191="n",2,IF(C191="e",3,IF(C191="s",4,5))))+(RAND()-0.5)*0.1)*(1+E191*1.25)</f>
-        <v>40.041621187575515</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40.013967726607568</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B192">
@@ -4407,16 +4408,16 @@
         <v>6</v>
       </c>
       <c r="D192">
-        <f ca="1">(VLOOKUP(A192,real,IF(C192="n",2,IF(C192="e",3,IF(C192="s",4,5))))+(RAND()-0.5)*0.1)*(1+E192*1.25)</f>
-        <v>33.020700490812821</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.060726199300831</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509823</v>
       </c>
       <c r="B193">
@@ -4426,8 +4427,8 @@
         <v>7</v>
       </c>
       <c r="D193">
-        <f ca="1">(VLOOKUP(A193,real,IF(C193="n",2,IF(C193="e",3,IF(C193="s",4,5))))+(RAND()-0.5)*0.1)*(1+E193*1.25)</f>
-        <v>27.062621585993515</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.071910193877734</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -4435,7 +4436,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B194">
@@ -4445,16 +4446,16 @@
         <v>4</v>
       </c>
       <c r="D194">
-        <f ca="1">(VLOOKUP(A194,real,IF(C194="n",2,IF(C194="e",3,IF(C194="s",4,5))))+(RAND()-0.5)*0.1)*(1+E194*1.25)</f>
-        <v>70.669954349587627</v>
+        <f t="shared" ref="D194:D257" ca="1" si="6">(VLOOKUP(A194,real,IF(C194="n",2,IF(C194="e",3,IF(C194="s",4,5))))+(RAND()-0.5)*0.1)*(1+E194*1.25)</f>
+        <v>70.748050747539509</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B195">
@@ -4464,16 +4465,16 @@
         <v>5</v>
       </c>
       <c r="D195">
-        <f ca="1">(VLOOKUP(A195,real,IF(C195="n",2,IF(C195="e",3,IF(C195="s",4,5))))+(RAND()-0.5)*0.1)*(1+E195*1.25)</f>
-        <v>91.000329158596458</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91.168253809066272</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B196">
@@ -4483,16 +4484,16 @@
         <v>6</v>
       </c>
       <c r="D196">
-        <f ca="1">(VLOOKUP(A196,real,IF(C196="n",2,IF(C196="e",3,IF(C196="s",4,5))))+(RAND()-0.5)*0.1)*(1+E196*1.25)</f>
-        <v>74.344335021965762</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>74.216949649019256</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B197">
@@ -4502,8 +4503,8 @@
         <v>7</v>
       </c>
       <c r="D197">
-        <f ca="1">(VLOOKUP(A197,real,IF(C197="n",2,IF(C197="e",3,IF(C197="s",4,5))))+(RAND()-0.5)*0.1)*(1+E197*1.25)</f>
-        <v>60.267430893880359</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>60.209553817026837</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -4511,7 +4512,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B198">
@@ -4521,16 +4522,16 @@
         <v>4</v>
       </c>
       <c r="D198">
-        <f ca="1">(VLOOKUP(A198,real,IF(C198="n",2,IF(C198="e",3,IF(C198="s",4,5))))+(RAND()-0.5)*0.1)*(1+E198*1.25)</f>
-        <v>31.424976525873308</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.404576712408883</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B199">
@@ -4540,16 +4541,16 @@
         <v>5</v>
       </c>
       <c r="D199">
-        <f ca="1">(VLOOKUP(A199,real,IF(C199="n",2,IF(C199="e",3,IF(C199="s",4,5))))+(RAND()-0.5)*0.1)*(1+E199*1.25)</f>
-        <v>40.489818894216981</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.519095309306749</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B200">
@@ -4559,16 +4560,16 @@
         <v>6</v>
       </c>
       <c r="D200">
-        <f ca="1">(VLOOKUP(A200,real,IF(C200="n",2,IF(C200="e",3,IF(C200="s",4,5))))+(RAND()-0.5)*0.1)*(1+E200*1.25)</f>
-        <v>33.005712940154105</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.034167193042194</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B201">
@@ -4578,8 +4579,8 @@
         <v>7</v>
       </c>
       <c r="D201">
-        <f ca="1">(VLOOKUP(A201,real,IF(C201="n",2,IF(C201="e",3,IF(C201="s",4,5))))+(RAND()-0.5)*0.1)*(1+E201*1.25)</f>
-        <v>26.710910746515921</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.740270111239095</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -4587,7 +4588,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B202">
@@ -4597,16 +4598,16 @@
         <v>4</v>
       </c>
       <c r="D202">
-        <f ca="1">(VLOOKUP(A202,real,IF(C202="n",2,IF(C202="e",3,IF(C202="s",4,5))))+(RAND()-0.5)*0.1)*(1+E202*1.25)</f>
-        <v>31.411735579445565</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.364163175577701</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B203">
@@ -4616,16 +4617,16 @@
         <v>5</v>
       </c>
       <c r="D203">
-        <f ca="1">(VLOOKUP(A203,real,IF(C203="n",2,IF(C203="e",3,IF(C203="s",4,5))))+(RAND()-0.5)*0.1)*(1+E203*1.25)</f>
-        <v>40.498174211645001</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.501633378162559</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B204">
@@ -4635,16 +4636,16 @@
         <v>6</v>
       </c>
       <c r="D204">
-        <f ca="1">(VLOOKUP(A204,real,IF(C204="n",2,IF(C204="e",3,IF(C204="s",4,5))))+(RAND()-0.5)*0.1)*(1+E204*1.25)</f>
-        <v>33.057430124153818</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.036513352857703</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B205">
@@ -4654,8 +4655,8 @@
         <v>7</v>
       </c>
       <c r="D205">
-        <f ca="1">(VLOOKUP(A205,real,IF(C205="n",2,IF(C205="e",3,IF(C205="s",4,5))))+(RAND()-0.5)*0.1)*(1+E205*1.25)</f>
-        <v>26.760649558530304</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.706625436153235</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -4663,7 +4664,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B206">
@@ -4673,16 +4674,16 @@
         <v>4</v>
       </c>
       <c r="D206">
-        <f ca="1">(VLOOKUP(A206,real,IF(C206="n",2,IF(C206="e",3,IF(C206="s",4,5))))+(RAND()-0.5)*0.1)*(1+E206*1.25)</f>
-        <v>31.362363864449698</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.369138975944221</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B207">
@@ -4692,16 +4693,16 @@
         <v>5</v>
       </c>
       <c r="D207">
-        <f ca="1">(VLOOKUP(A207,real,IF(C207="n",2,IF(C207="e",3,IF(C207="s",4,5))))+(RAND()-0.5)*0.1)*(1+E207*1.25)</f>
-        <v>40.452537897651062</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.502309854075577</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B208">
@@ -4711,16 +4712,16 @@
         <v>6</v>
       </c>
       <c r="D208">
-        <f ca="1">(VLOOKUP(A208,real,IF(C208="n",2,IF(C208="e",3,IF(C208="s",4,5))))+(RAND()-0.5)*0.1)*(1+E208*1.25)</f>
-        <v>33.030625620320158</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.046255526082781</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509824</v>
       </c>
       <c r="B209">
@@ -4730,8 +4731,8 @@
         <v>7</v>
       </c>
       <c r="D209">
-        <f ca="1">(VLOOKUP(A209,real,IF(C209="n",2,IF(C209="e",3,IF(C209="s",4,5))))+(RAND()-0.5)*0.1)*(1+E209*1.25)</f>
-        <v>26.708337176922136</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.707695061533116</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -4739,7 +4740,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1635509825</v>
       </c>
       <c r="B210">
@@ -4749,16 +4750,16 @@
         <v>4</v>
       </c>
       <c r="D210">
-        <f ca="1">(VLOOKUP(A210,real,IF(C210="n",2,IF(C210="e",3,IF(C210="s",4,5))))+(RAND()-0.5)*0.1)*(1+E210*1.25)</f>
-        <v>70.365205459309635</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>70.49042647420805</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
-        <f t="shared" ref="A211:A274" si="3">IF(B210=43,A210+1,A210)</f>
+        <f t="shared" ref="A211:A274" si="7">IF(B210=43,A210+1,A210)</f>
         <v>1635509825</v>
       </c>
       <c r="B211">
@@ -4768,16 +4769,16 @@
         <v>5</v>
       </c>
       <c r="D211">
-        <f ca="1">(VLOOKUP(A211,real,IF(C211="n",2,IF(C211="e",3,IF(C211="s",4,5))))+(RAND()-0.5)*0.1)*(1+E211*1.25)</f>
-        <v>90.804947727535918</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90.909880700838244</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B212">
@@ -4787,16 +4788,16 @@
         <v>6</v>
       </c>
       <c r="D212">
-        <f ca="1">(VLOOKUP(A212,real,IF(C212="n",2,IF(C212="e",3,IF(C212="s",4,5))))+(RAND()-0.5)*0.1)*(1+E212*1.25)</f>
-        <v>74.496751441575384</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>74.547802824712761</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B213">
@@ -4806,8 +4807,8 @@
         <v>7</v>
       </c>
       <c r="D213">
-        <f ca="1">(VLOOKUP(A213,real,IF(C213="n",2,IF(C213="e",3,IF(C213="s",4,5))))+(RAND()-0.5)*0.1)*(1+E213*1.25)</f>
-        <v>59.405139632105872</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>59.215772152200856</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -4815,7 +4816,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B214">
@@ -4825,16 +4826,16 @@
         <v>4</v>
       </c>
       <c r="D214">
-        <f ca="1">(VLOOKUP(A214,real,IF(C214="n",2,IF(C214="e",3,IF(C214="s",4,5))))+(RAND()-0.5)*0.1)*(1+E214*1.25)</f>
-        <v>31.308555479590485</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.359266350996442</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B215">
@@ -4844,16 +4845,16 @@
         <v>5</v>
       </c>
       <c r="D215">
-        <f ca="1">(VLOOKUP(A215,real,IF(C215="n",2,IF(C215="e",3,IF(C215="s",4,5))))+(RAND()-0.5)*0.1)*(1+E215*1.25)</f>
-        <v>40.437362798501312</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.399701989240626</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B216">
@@ -4863,16 +4864,16 @@
         <v>6</v>
       </c>
       <c r="D216">
-        <f ca="1">(VLOOKUP(A216,real,IF(C216="n",2,IF(C216="e",3,IF(C216="s",4,5))))+(RAND()-0.5)*0.1)*(1+E216*1.25)</f>
-        <v>33.111149108436805</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.108945065768019</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B217">
@@ -4882,8 +4883,8 @@
         <v>7</v>
       </c>
       <c r="D217">
-        <f ca="1">(VLOOKUP(A217,real,IF(C217="n",2,IF(C217="e",3,IF(C217="s",4,5))))+(RAND()-0.5)*0.1)*(1+E217*1.25)</f>
-        <v>26.306225737225024</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.316379627632262</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -4891,7 +4892,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B218">
@@ -4901,16 +4902,16 @@
         <v>4</v>
       </c>
       <c r="D218">
-        <f ca="1">(VLOOKUP(A218,real,IF(C218="n",2,IF(C218="e",3,IF(C218="s",4,5))))+(RAND()-0.5)*0.1)*(1+E218*1.25)</f>
-        <v>31.345216444472953</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.279001604708544</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B219">
@@ -4920,16 +4921,16 @@
         <v>5</v>
       </c>
       <c r="D219">
-        <f ca="1">(VLOOKUP(A219,real,IF(C219="n",2,IF(C219="e",3,IF(C219="s",4,5))))+(RAND()-0.5)*0.1)*(1+E219*1.25)</f>
-        <v>40.407704906580264</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.417171318067766</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B220">
@@ -4939,16 +4940,16 @@
         <v>6</v>
       </c>
       <c r="D220">
-        <f ca="1">(VLOOKUP(A220,real,IF(C220="n",2,IF(C220="e",3,IF(C220="s",4,5))))+(RAND()-0.5)*0.1)*(1+E220*1.25)</f>
-        <v>33.104626639114848</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.185028151556594</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B221">
@@ -4958,8 +4959,8 @@
         <v>7</v>
       </c>
       <c r="D221">
-        <f ca="1">(VLOOKUP(A221,real,IF(C221="n",2,IF(C221="e",3,IF(C221="s",4,5))))+(RAND()-0.5)*0.1)*(1+E221*1.25)</f>
-        <v>26.309691627608533</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.377897650387069</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -4967,7 +4968,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B222">
@@ -4977,16 +4978,16 @@
         <v>4</v>
       </c>
       <c r="D222">
-        <f ca="1">(VLOOKUP(A222,real,IF(C222="n",2,IF(C222="e",3,IF(C222="s",4,5))))+(RAND()-0.5)*0.1)*(1+E222*1.25)</f>
-        <v>31.335413849342114</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.301619579168893</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B223">
@@ -4996,16 +4997,16 @@
         <v>5</v>
       </c>
       <c r="D223">
-        <f ca="1">(VLOOKUP(A223,real,IF(C223="n",2,IF(C223="e",3,IF(C223="s",4,5))))+(RAND()-0.5)*0.1)*(1+E223*1.25)</f>
-        <v>40.40564386722366</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.403272231283289</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B224">
@@ -5015,16 +5016,16 @@
         <v>6</v>
       </c>
       <c r="D224">
-        <f ca="1">(VLOOKUP(A224,real,IF(C224="n",2,IF(C224="e",3,IF(C224="s",4,5))))+(RAND()-0.5)*0.1)*(1+E224*1.25)</f>
-        <v>33.121715405739955</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.110329647265957</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509825</v>
       </c>
       <c r="B225">
@@ -5034,8 +5035,8 @@
         <v>7</v>
       </c>
       <c r="D225">
-        <f ca="1">(VLOOKUP(A225,real,IF(C225="n",2,IF(C225="e",3,IF(C225="s",4,5))))+(RAND()-0.5)*0.1)*(1+E225*1.25)</f>
-        <v>26.380639456750711</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.404058446648563</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -5043,7 +5044,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B226">
@@ -5053,16 +5054,16 @@
         <v>4</v>
       </c>
       <c r="D226">
-        <f ca="1">(VLOOKUP(A226,real,IF(C226="n",2,IF(C226="e",3,IF(C226="s",4,5))))+(RAND()-0.5)*0.1)*(1+E226*1.25)</f>
-        <v>70.233361635133249</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>70.164980546034798</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B227">
@@ -5072,16 +5073,16 @@
         <v>5</v>
       </c>
       <c r="D227">
-        <f ca="1">(VLOOKUP(A227,real,IF(C227="n",2,IF(C227="e",3,IF(C227="s",4,5))))+(RAND()-0.5)*0.1)*(1+E227*1.25)</f>
-        <v>91.015316694643275</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91.101019400250564</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B228">
@@ -5091,16 +5092,16 @@
         <v>6</v>
       </c>
       <c r="D228">
-        <f ca="1">(VLOOKUP(A228,real,IF(C228="n",2,IF(C228="e",3,IF(C228="s",4,5))))+(RAND()-0.5)*0.1)*(1+E228*1.25)</f>
-        <v>74.684812771202772</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>74.830207383399937</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B229">
@@ -5110,8 +5111,8 @@
         <v>7</v>
       </c>
       <c r="D229">
-        <f ca="1">(VLOOKUP(A229,real,IF(C229="n",2,IF(C229="e",3,IF(C229="s",4,5))))+(RAND()-0.5)*0.1)*(1+E229*1.25)</f>
-        <v>60.256601856877609</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>60.36521645348833</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -5119,7 +5120,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B230">
@@ -5129,16 +5130,16 @@
         <v>4</v>
       </c>
       <c r="D230">
-        <f ca="1">(VLOOKUP(A230,real,IF(C230="n",2,IF(C230="e",3,IF(C230="s",4,5))))+(RAND()-0.5)*0.1)*(1+E230*1.25)</f>
-        <v>31.196843752644739</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.204623856563323</v>
       </c>
       <c r="E230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B231">
@@ -5148,16 +5149,16 @@
         <v>5</v>
       </c>
       <c r="D231">
-        <f ca="1">(VLOOKUP(A231,real,IF(C231="n",2,IF(C231="e",3,IF(C231="s",4,5))))+(RAND()-0.5)*0.1)*(1+E231*1.25)</f>
-        <v>40.428765859748971</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.50920332725245</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B232">
@@ -5167,16 +5168,16 @@
         <v>6</v>
       </c>
       <c r="D232">
-        <f ca="1">(VLOOKUP(A232,real,IF(C232="n",2,IF(C232="e",3,IF(C232="s",4,5))))+(RAND()-0.5)*0.1)*(1+E232*1.25)</f>
-        <v>33.247431650377592</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.257287063616424</v>
       </c>
       <c r="E232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B233">
@@ -5186,8 +5187,8 @@
         <v>7</v>
       </c>
       <c r="D233">
-        <f ca="1">(VLOOKUP(A233,real,IF(C233="n",2,IF(C233="e",3,IF(C233="s",4,5))))+(RAND()-0.5)*0.1)*(1+E233*1.25)</f>
-        <v>26.832433309307309</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.80526317448901</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -5195,7 +5196,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B234">
@@ -5205,16 +5206,16 @@
         <v>4</v>
       </c>
       <c r="D234">
-        <f ca="1">(VLOOKUP(A234,real,IF(C234="n",2,IF(C234="e",3,IF(C234="s",4,5))))+(RAND()-0.5)*0.1)*(1+E234*1.25)</f>
-        <v>31.274483283129751</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.234016322967374</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B235">
@@ -5224,16 +5225,16 @@
         <v>5</v>
       </c>
       <c r="D235">
-        <f ca="1">(VLOOKUP(A235,real,IF(C235="n",2,IF(C235="e",3,IF(C235="s",4,5))))+(RAND()-0.5)*0.1)*(1+E235*1.25)</f>
-        <v>40.441840176885016</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.411249180201764</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B236">
@@ -5243,16 +5244,16 @@
         <v>6</v>
       </c>
       <c r="D236">
-        <f ca="1">(VLOOKUP(A236,real,IF(C236="n",2,IF(C236="e",3,IF(C236="s",4,5))))+(RAND()-0.5)*0.1)*(1+E236*1.25)</f>
-        <v>33.229218992579767</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.251186464023036</v>
       </c>
       <c r="E236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B237">
@@ -5262,8 +5263,8 @@
         <v>7</v>
       </c>
       <c r="D237">
-        <f ca="1">(VLOOKUP(A237,real,IF(C237="n",2,IF(C237="e",3,IF(C237="s",4,5))))+(RAND()-0.5)*0.1)*(1+E237*1.25)</f>
-        <v>26.822754356760878</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.774954866130027</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -5271,7 +5272,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B238">
@@ -5281,16 +5282,16 @@
         <v>4</v>
       </c>
       <c r="D238">
-        <f ca="1">(VLOOKUP(A238,real,IF(C238="n",2,IF(C238="e",3,IF(C238="s",4,5))))+(RAND()-0.5)*0.1)*(1+E238*1.25)</f>
-        <v>31.235666467254909</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.183872802322099</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B239">
@@ -5300,16 +5301,16 @@
         <v>5</v>
       </c>
       <c r="D239">
-        <f ca="1">(VLOOKUP(A239,real,IF(C239="n",2,IF(C239="e",3,IF(C239="s",4,5))))+(RAND()-0.5)*0.1)*(1+E239*1.25)</f>
-        <v>40.450365862625212</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.477261346026381</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B240">
@@ -5319,16 +5320,16 @@
         <v>6</v>
       </c>
       <c r="D240">
-        <f ca="1">(VLOOKUP(A240,real,IF(C240="n",2,IF(C240="e",3,IF(C240="s",4,5))))+(RAND()-0.5)*0.1)*(1+E240*1.25)</f>
-        <v>33.196572020554513</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.247702947809138</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509826</v>
       </c>
       <c r="B241">
@@ -5338,8 +5339,8 @@
         <v>7</v>
       </c>
       <c r="D241">
-        <f ca="1">(VLOOKUP(A241,real,IF(C241="n",2,IF(C241="e",3,IF(C241="s",4,5))))+(RAND()-0.5)*0.1)*(1+E241*1.25)</f>
-        <v>26.759585458815071</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.776362230755105</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -5347,7 +5348,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B242">
@@ -5357,16 +5358,16 @@
         <v>4</v>
       </c>
       <c r="D242">
-        <f ca="1">(VLOOKUP(A242,real,IF(C242="n",2,IF(C242="e",3,IF(C242="s",4,5))))+(RAND()-0.5)*0.1)*(1+E242*1.25)</f>
-        <v>69.292167432461198</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>69.310351162148052</v>
       </c>
       <c r="E242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B243">
@@ -5376,16 +5377,16 @@
         <v>5</v>
       </c>
       <c r="D243">
-        <f ca="1">(VLOOKUP(A243,real,IF(C243="n",2,IF(C243="e",3,IF(C243="s",4,5))))+(RAND()-0.5)*0.1)*(1+E243*1.25)</f>
-        <v>91.423205820061071</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91.484772655683102</v>
       </c>
       <c r="E243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B244">
@@ -5395,16 +5396,16 @@
         <v>6</v>
       </c>
       <c r="D244">
-        <f ca="1">(VLOOKUP(A244,real,IF(C244="n",2,IF(C244="e",3,IF(C244="s",4,5))))+(RAND()-0.5)*0.1)*(1+E244*1.25)</f>
-        <v>75.415659806125873</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>75.485555910588303</v>
       </c>
       <c r="E244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B245">
@@ -5414,8 +5415,8 @@
         <v>7</v>
       </c>
       <c r="D245">
-        <f ca="1">(VLOOKUP(A245,real,IF(C245="n",2,IF(C245="e",3,IF(C245="s",4,5))))+(RAND()-0.5)*0.1)*(1+E245*1.25)</f>
-        <v>60.349415415127993</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>60.453794088850394</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -5423,7 +5424,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B246">
@@ -5433,16 +5434,16 @@
         <v>4</v>
       </c>
       <c r="D246">
-        <f ca="1">(VLOOKUP(A246,real,IF(C246="n",2,IF(C246="e",3,IF(C246="s",4,5))))+(RAND()-0.5)*0.1)*(1+E246*1.25)</f>
-        <v>30.808998424430591</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>30.76382784317563</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B247">
@@ -5452,16 +5453,16 @@
         <v>5</v>
       </c>
       <c r="D247">
-        <f ca="1">(VLOOKUP(A247,real,IF(C247="n",2,IF(C247="e",3,IF(C247="s",4,5))))+(RAND()-0.5)*0.1)*(1+E247*1.25)</f>
-        <v>40.692121245597335</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.659274313425968</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B248">
@@ -5471,16 +5472,16 @@
         <v>6</v>
       </c>
       <c r="D248">
-        <f ca="1">(VLOOKUP(A248,real,IF(C248="n",2,IF(C248="e",3,IF(C248="s",4,5))))+(RAND()-0.5)*0.1)*(1+E248*1.25)</f>
-        <v>33.56686724813305</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.572264474346078</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B249">
@@ -5490,8 +5491,8 @@
         <v>7</v>
       </c>
       <c r="D249">
-        <f ca="1">(VLOOKUP(A249,real,IF(C249="n",2,IF(C249="e",3,IF(C249="s",4,5))))+(RAND()-0.5)*0.1)*(1+E249*1.25)</f>
-        <v>26.781576487822626</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.795724214573116</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -5499,7 +5500,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B250">
@@ -5509,16 +5510,16 @@
         <v>4</v>
       </c>
       <c r="D250">
-        <f ca="1">(VLOOKUP(A250,real,IF(C250="n",2,IF(C250="e",3,IF(C250="s",4,5))))+(RAND()-0.5)*0.1)*(1+E250*1.25)</f>
-        <v>30.790192612676762</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>30.800744154507282</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B251">
@@ -5528,16 +5529,16 @@
         <v>5</v>
       </c>
       <c r="D251">
-        <f ca="1">(VLOOKUP(A251,real,IF(C251="n",2,IF(C251="e",3,IF(C251="s",4,5))))+(RAND()-0.5)*0.1)*(1+E251*1.25)</f>
-        <v>40.668365670348102</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.638919582602377</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B252">
@@ -5547,16 +5548,16 @@
         <v>6</v>
       </c>
       <c r="D252">
-        <f ca="1">(VLOOKUP(A252,real,IF(C252="n",2,IF(C252="e",3,IF(C252="s",4,5))))+(RAND()-0.5)*0.1)*(1+E252*1.25)</f>
-        <v>33.568234599886935</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.525252467032203</v>
       </c>
       <c r="E252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B253">
@@ -5566,8 +5567,8 @@
         <v>7</v>
       </c>
       <c r="D253">
-        <f ca="1">(VLOOKUP(A253,real,IF(C253="n",2,IF(C253="e",3,IF(C253="s",4,5))))+(RAND()-0.5)*0.1)*(1+E253*1.25)</f>
-        <v>26.803910445557424</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.873722377322551</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -5575,7 +5576,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B254">
@@ -5585,16 +5586,16 @@
         <v>4</v>
       </c>
       <c r="D254">
-        <f ca="1">(VLOOKUP(A254,real,IF(C254="n",2,IF(C254="e",3,IF(C254="s",4,5))))+(RAND()-0.5)*0.1)*(1+E254*1.25)</f>
-        <v>30.766545913410539</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>30.756117489010752</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B255">
@@ -5604,16 +5605,16 @@
         <v>5</v>
       </c>
       <c r="D255">
-        <f ca="1">(VLOOKUP(A255,real,IF(C255="n",2,IF(C255="e",3,IF(C255="s",4,5))))+(RAND()-0.5)*0.1)*(1+E255*1.25)</f>
-        <v>40.647195245315096</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>40.652923907247612</v>
       </c>
       <c r="E255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B256">
@@ -5623,16 +5624,16 @@
         <v>6</v>
       </c>
       <c r="D256">
-        <f ca="1">(VLOOKUP(A256,real,IF(C256="n",2,IF(C256="e",3,IF(C256="s",4,5))))+(RAND()-0.5)*0.1)*(1+E256*1.25)</f>
-        <v>33.553523383997565</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>33.563021768441615</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509827</v>
       </c>
       <c r="B257">
@@ -5642,8 +5643,8 @@
         <v>7</v>
       </c>
       <c r="D257">
-        <f ca="1">(VLOOKUP(A257,real,IF(C257="n",2,IF(C257="e",3,IF(C257="s",4,5))))+(RAND()-0.5)*0.1)*(1+E257*1.25)</f>
-        <v>26.851452979828888</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26.803779407368438</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -5651,7 +5652,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B258">
@@ -5661,16 +5662,16 @@
         <v>4</v>
       </c>
       <c r="D258">
-        <f ca="1">(VLOOKUP(A258,real,IF(C258="n",2,IF(C258="e",3,IF(C258="s",4,5))))+(RAND()-0.5)*0.1)*(1+E258*1.25)</f>
-        <v>69.49100648313059</v>
+        <f t="shared" ref="D258:D321" ca="1" si="8">(VLOOKUP(A258,real,IF(C258="n",2,IF(C258="e",3,IF(C258="s",4,5))))+(RAND()-0.5)*0.1)*(1+E258*1.25)</f>
+        <v>69.328870156634267</v>
       </c>
       <c r="E258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B259">
@@ -5680,16 +5681,16 @@
         <v>5</v>
       </c>
       <c r="D259">
-        <f ca="1">(VLOOKUP(A259,real,IF(C259="n",2,IF(C259="e",3,IF(C259="s",4,5))))+(RAND()-0.5)*0.1)*(1+E259*1.25)</f>
-        <v>91.569928693533001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>91.603634314470199</v>
       </c>
       <c r="E259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B260">
@@ -5699,16 +5700,16 @@
         <v>6</v>
       </c>
       <c r="D260">
-        <f ca="1">(VLOOKUP(A260,real,IF(C260="n",2,IF(C260="e",3,IF(C260="s",4,5))))+(RAND()-0.5)*0.1)*(1+E260*1.25)</f>
-        <v>74.426824878812738</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>74.437197942689068</v>
       </c>
       <c r="E260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B261">
@@ -5718,8 +5719,8 @@
         <v>7</v>
       </c>
       <c r="D261">
-        <f ca="1">(VLOOKUP(A261,real,IF(C261="n",2,IF(C261="e",3,IF(C261="s",4,5))))+(RAND()-0.5)*0.1)*(1+E261*1.25)</f>
-        <v>61.381221304848474</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>61.40027439607055</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -5727,7 +5728,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B262">
@@ -5737,16 +5738,16 @@
         <v>4</v>
       </c>
       <c r="D262">
-        <f ca="1">(VLOOKUP(A262,real,IF(C262="n",2,IF(C262="e",3,IF(C262="s",4,5))))+(RAND()-0.5)*0.1)*(1+E262*1.25)</f>
-        <v>30.848080701327536</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.899910753270916</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B263">
@@ -5756,16 +5757,16 @@
         <v>5</v>
       </c>
       <c r="D263">
-        <f ca="1">(VLOOKUP(A263,real,IF(C263="n",2,IF(C263="e",3,IF(C263="s",4,5))))+(RAND()-0.5)*0.1)*(1+E263*1.25)</f>
-        <v>40.655953558605333</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.661706151737157</v>
       </c>
       <c r="E263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B264">
@@ -5775,16 +5776,16 @@
         <v>6</v>
       </c>
       <c r="D264">
-        <f ca="1">(VLOOKUP(A264,real,IF(C264="n",2,IF(C264="e",3,IF(C264="s",4,5))))+(RAND()-0.5)*0.1)*(1+E264*1.25)</f>
-        <v>33.002440274088961</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>33.062590913674356</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B265">
@@ -5794,8 +5795,8 @@
         <v>7</v>
       </c>
       <c r="D265">
-        <f ca="1">(VLOOKUP(A265,real,IF(C265="n",2,IF(C265="e",3,IF(C265="s",4,5))))+(RAND()-0.5)*0.1)*(1+E265*1.25)</f>
-        <v>27.246605956745618</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27.230495880360209</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -5803,7 +5804,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B266">
@@ -5813,16 +5814,16 @@
         <v>4</v>
       </c>
       <c r="D266">
-        <f ca="1">(VLOOKUP(A266,real,IF(C266="n",2,IF(C266="e",3,IF(C266="s",4,5))))+(RAND()-0.5)*0.1)*(1+E266*1.25)</f>
-        <v>30.816059125143095</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.821554888159671</v>
       </c>
       <c r="E266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B267">
@@ -5832,16 +5833,16 @@
         <v>5</v>
       </c>
       <c r="D267">
-        <f ca="1">(VLOOKUP(A267,real,IF(C267="n",2,IF(C267="e",3,IF(C267="s",4,5))))+(RAND()-0.5)*0.1)*(1+E267*1.25)</f>
-        <v>40.664412659418595</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.679110987958921</v>
       </c>
       <c r="E267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B268">
@@ -5851,16 +5852,16 @@
         <v>6</v>
       </c>
       <c r="D268">
-        <f ca="1">(VLOOKUP(A268,real,IF(C268="n",2,IF(C268="e",3,IF(C268="s",4,5))))+(RAND()-0.5)*0.1)*(1+E268*1.25)</f>
-        <v>33.088526280745626</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>33.084472897190096</v>
       </c>
       <c r="E268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B269">
@@ -5870,8 +5871,8 @@
         <v>7</v>
       </c>
       <c r="D269">
-        <f ca="1">(VLOOKUP(A269,real,IF(C269="n",2,IF(C269="e",3,IF(C269="s",4,5))))+(RAND()-0.5)*0.1)*(1+E269*1.25)</f>
-        <v>27.270830542932579</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27.278640245493097</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -5879,7 +5880,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B270">
@@ -5889,16 +5890,16 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <f ca="1">(VLOOKUP(A270,real,IF(C270="n",2,IF(C270="e",3,IF(C270="s",4,5))))+(RAND()-0.5)*0.1)*(1+E270*1.25)</f>
-        <v>30.876942943928054</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.830968804930553</v>
       </c>
       <c r="E270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B271">
@@ -5908,16 +5909,16 @@
         <v>5</v>
       </c>
       <c r="D271">
-        <f ca="1">(VLOOKUP(A271,real,IF(C271="n",2,IF(C271="e",3,IF(C271="s",4,5))))+(RAND()-0.5)*0.1)*(1+E271*1.25)</f>
-        <v>40.661348164759914</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.710042431837934</v>
       </c>
       <c r="E271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B272">
@@ -5927,16 +5928,16 @@
         <v>6</v>
       </c>
       <c r="D272">
-        <f ca="1">(VLOOKUP(A272,real,IF(C272="n",2,IF(C272="e",3,IF(C272="s",4,5))))+(RAND()-0.5)*0.1)*(1+E272*1.25)</f>
-        <v>33.033795614146072</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>33.041871159359232</v>
       </c>
       <c r="E272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509828</v>
       </c>
       <c r="B273">
@@ -5946,8 +5947,8 @@
         <v>7</v>
       </c>
       <c r="D273">
-        <f ca="1">(VLOOKUP(A273,real,IF(C273="n",2,IF(C273="e",3,IF(C273="s",4,5))))+(RAND()-0.5)*0.1)*(1+E273*1.25)</f>
-        <v>27.23195766184844</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27.230161680565889</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -5955,7 +5956,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1635509829</v>
       </c>
       <c r="B274">
@@ -5965,16 +5966,16 @@
         <v>4</v>
       </c>
       <c r="D274">
-        <f ca="1">(VLOOKUP(A274,real,IF(C274="n",2,IF(C274="e",3,IF(C274="s",4,5))))+(RAND()-0.5)*0.1)*(1+E274*1.25)</f>
-        <v>68.767809257626581</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>68.781425654336545</v>
       </c>
       <c r="E274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
-        <f t="shared" ref="A275:A338" si="4">IF(B274=43,A274+1,A274)</f>
+        <f t="shared" ref="A275:A305" si="9">IF(B274=43,A274+1,A274)</f>
         <v>1635509829</v>
       </c>
       <c r="B275">
@@ -5984,16 +5985,16 @@
         <v>5</v>
       </c>
       <c r="D275">
-        <f ca="1">(VLOOKUP(A275,real,IF(C275="n",2,IF(C275="e",3,IF(C275="s",4,5))))+(RAND()-0.5)*0.1)*(1+E275*1.25)</f>
-        <v>91.412043770756952</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>91.498062418681968</v>
       </c>
       <c r="E275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B276">
@@ -6003,16 +6004,16 @@
         <v>6</v>
       </c>
       <c r="D276">
-        <f ca="1">(VLOOKUP(A276,real,IF(C276="n",2,IF(C276="e",3,IF(C276="s",4,5))))+(RAND()-0.5)*0.1)*(1+E276*1.25)</f>
-        <v>74.115048456737867</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>73.97012322106346</v>
       </c>
       <c r="E276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B277">
@@ -6022,8 +6023,8 @@
         <v>7</v>
       </c>
       <c r="D277">
-        <f ca="1">(VLOOKUP(A277,real,IF(C277="n",2,IF(C277="e",3,IF(C277="s",4,5))))+(RAND()-0.5)*0.1)*(1+E277*1.25)</f>
-        <v>61.274131973832866</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>61.345069999503757</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -6031,7 +6032,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B278">
@@ -6041,16 +6042,16 @@
         <v>4</v>
       </c>
       <c r="D278">
-        <f ca="1">(VLOOKUP(A278,real,IF(C278="n",2,IF(C278="e",3,IF(C278="s",4,5))))+(RAND()-0.5)*0.1)*(1+E278*1.25)</f>
-        <v>30.568084704136794</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.504021079382703</v>
       </c>
       <c r="E278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B279">
@@ -6060,16 +6061,16 @@
         <v>5</v>
       </c>
       <c r="D279">
-        <f ca="1">(VLOOKUP(A279,real,IF(C279="n",2,IF(C279="e",3,IF(C279="s",4,5))))+(RAND()-0.5)*0.1)*(1+E279*1.25)</f>
-        <v>40.593403009165677</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.65001432743626</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B280">
@@ -6079,16 +6080,16 @@
         <v>6</v>
       </c>
       <c r="D280">
-        <f ca="1">(VLOOKUP(A280,real,IF(C280="n",2,IF(C280="e",3,IF(C280="s",4,5))))+(RAND()-0.5)*0.1)*(1+E280*1.25)</f>
-        <v>32.883972289996294</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32.936272349965016</v>
       </c>
       <c r="E280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B281">
@@ -6098,8 +6099,8 @@
         <v>7</v>
       </c>
       <c r="D281">
-        <f ca="1">(VLOOKUP(A281,real,IF(C281="n",2,IF(C281="e",3,IF(C281="s",4,5))))+(RAND()-0.5)*0.1)*(1+E281*1.25)</f>
-        <v>27.277604500185387</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27.26339362970117</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6107,7 +6108,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B282">
@@ -6117,16 +6118,16 @@
         <v>4</v>
       </c>
       <c r="D282">
-        <f ca="1">(VLOOKUP(A282,real,IF(C282="n",2,IF(C282="e",3,IF(C282="s",4,5))))+(RAND()-0.5)*0.1)*(1+E282*1.25)</f>
-        <v>30.521372906105018</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.512012214205914</v>
       </c>
       <c r="E282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B283">
@@ -6136,16 +6137,16 @@
         <v>5</v>
       </c>
       <c r="D283">
-        <f ca="1">(VLOOKUP(A283,real,IF(C283="n",2,IF(C283="e",3,IF(C283="s",4,5))))+(RAND()-0.5)*0.1)*(1+E283*1.25)</f>
-        <v>40.641991666744303</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.607721483600038</v>
       </c>
       <c r="E283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B284">
@@ -6155,16 +6156,16 @@
         <v>6</v>
       </c>
       <c r="D284">
-        <f ca="1">(VLOOKUP(A284,real,IF(C284="n",2,IF(C284="e",3,IF(C284="s",4,5))))+(RAND()-0.5)*0.1)*(1+E284*1.25)</f>
-        <v>32.921204493601849</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32.913657269804794</v>
       </c>
       <c r="E284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B285">
@@ -6174,8 +6175,8 @@
         <v>7</v>
       </c>
       <c r="D285">
-        <f ca="1">(VLOOKUP(A285,real,IF(C285="n",2,IF(C285="e",3,IF(C285="s",4,5))))+(RAND()-0.5)*0.1)*(1+E285*1.25)</f>
-        <v>27.281773825796503</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27.310030144392066</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -6183,7 +6184,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B286">
@@ -6193,16 +6194,16 @@
         <v>4</v>
       </c>
       <c r="D286">
-        <f ca="1">(VLOOKUP(A286,real,IF(C286="n",2,IF(C286="e",3,IF(C286="s",4,5))))+(RAND()-0.5)*0.1)*(1+E286*1.25)</f>
-        <v>30.493530330911671</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.580088496765025</v>
       </c>
       <c r="E286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B287">
@@ -6212,16 +6213,16 @@
         <v>5</v>
       </c>
       <c r="D287">
-        <f ca="1">(VLOOKUP(A287,real,IF(C287="n",2,IF(C287="e",3,IF(C287="s",4,5))))+(RAND()-0.5)*0.1)*(1+E287*1.25)</f>
-        <v>40.596951075568867</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.63861009435869</v>
       </c>
       <c r="E287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B288">
@@ -6231,16 +6232,16 @@
         <v>6</v>
       </c>
       <c r="D288">
-        <f ca="1">(VLOOKUP(A288,real,IF(C288="n",2,IF(C288="e",3,IF(C288="s",4,5))))+(RAND()-0.5)*0.1)*(1+E288*1.25)</f>
-        <v>32.927528760585744</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32.908814077597093</v>
       </c>
       <c r="E288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509829</v>
       </c>
       <c r="B289">
@@ -6250,8 +6251,8 @@
         <v>7</v>
       </c>
       <c r="D289">
-        <f ca="1">(VLOOKUP(A289,real,IF(C289="n",2,IF(C289="e",3,IF(C289="s",4,5))))+(RAND()-0.5)*0.1)*(1+E289*1.25)</f>
-        <v>27.266921837114396</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27.235924403078645</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -6259,7 +6260,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B290">
@@ -6269,16 +6270,16 @@
         <v>4</v>
       </c>
       <c r="D290">
-        <f ca="1">(VLOOKUP(A290,real,IF(C290="n",2,IF(C290="e",3,IF(C290="s",4,5))))+(RAND()-0.5)*0.1)*(1+E290*1.25)</f>
-        <v>68.11914233976286</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>68.223949129393901</v>
       </c>
       <c r="E290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B291">
@@ -6288,16 +6289,16 @@
         <v>5</v>
       </c>
       <c r="D291">
-        <f ca="1">(VLOOKUP(A291,real,IF(C291="n",2,IF(C291="e",3,IF(C291="s",4,5))))+(RAND()-0.5)*0.1)*(1+E291*1.25)</f>
-        <v>91.555900040855676</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>91.667905397462931</v>
       </c>
       <c r="E291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B292">
@@ -6307,16 +6308,16 @@
         <v>6</v>
       </c>
       <c r="D292">
-        <f ca="1">(VLOOKUP(A292,real,IF(C292="n",2,IF(C292="e",3,IF(C292="s",4,5))))+(RAND()-0.5)*0.1)*(1+E292*1.25)</f>
-        <v>74.062984786062685</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>74.087911578412218</v>
       </c>
       <c r="E292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B293">
@@ -6326,8 +6327,8 @@
         <v>7</v>
       </c>
       <c r="D293">
-        <f ca="1">(VLOOKUP(A293,real,IF(C293="n",2,IF(C293="e",3,IF(C293="s",4,5))))+(RAND()-0.5)*0.1)*(1+E293*1.25)</f>
-        <v>60.84407773194674</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>60.816267851635942</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -6335,7 +6336,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B294">
@@ -6345,16 +6346,16 @@
         <v>4</v>
       </c>
       <c r="D294">
-        <f ca="1">(VLOOKUP(A294,real,IF(C294="n",2,IF(C294="e",3,IF(C294="s",4,5))))+(RAND()-0.5)*0.1)*(1+E294*1.25)</f>
-        <v>30.279195528169453</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.26486147555579</v>
       </c>
       <c r="E294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B295">
@@ -6364,16 +6365,16 @@
         <v>5</v>
       </c>
       <c r="D295">
-        <f ca="1">(VLOOKUP(A295,real,IF(C295="n",2,IF(C295="e",3,IF(C295="s",4,5))))+(RAND()-0.5)*0.1)*(1+E295*1.25)</f>
-        <v>40.715446682558273</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.718694094671861</v>
       </c>
       <c r="E295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B296">
@@ -6383,16 +6384,16 @@
         <v>6</v>
       </c>
       <c r="D296">
-        <f ca="1">(VLOOKUP(A296,real,IF(C296="n",2,IF(C296="e",3,IF(C296="s",4,5))))+(RAND()-0.5)*0.1)*(1+E296*1.25)</f>
-        <v>32.86880977150031</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32.915752423472846</v>
       </c>
       <c r="E296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B297">
@@ -6402,8 +6403,8 @@
         <v>7</v>
       </c>
       <c r="D297">
-        <f ca="1">(VLOOKUP(A297,real,IF(C297="n",2,IF(C297="e",3,IF(C297="s",4,5))))+(RAND()-0.5)*0.1)*(1+E297*1.25)</f>
-        <v>26.972942568020152</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27.037801422414127</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -6411,7 +6412,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B298">
@@ -6421,16 +6422,16 @@
         <v>4</v>
       </c>
       <c r="D298">
-        <f ca="1">(VLOOKUP(A298,real,IF(C298="n",2,IF(C298="e",3,IF(C298="s",4,5))))+(RAND()-0.5)*0.1)*(1+E298*1.25)</f>
-        <v>30.335802816008037</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.300185315952408</v>
       </c>
       <c r="E298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B299">
@@ -6440,16 +6441,16 @@
         <v>5</v>
       </c>
       <c r="D299">
-        <f ca="1">(VLOOKUP(A299,real,IF(C299="n",2,IF(C299="e",3,IF(C299="s",4,5))))+(RAND()-0.5)*0.1)*(1+E299*1.25)</f>
-        <v>40.678046066035662</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.737239987385031</v>
       </c>
       <c r="E299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B300">
@@ -6459,16 +6460,16 @@
         <v>6</v>
       </c>
       <c r="D300">
-        <f ca="1">(VLOOKUP(A300,real,IF(C300="n",2,IF(C300="e",3,IF(C300="s",4,5))))+(RAND()-0.5)*0.1)*(1+E300*1.25)</f>
-        <v>32.959202309287548</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32.930756768785486</v>
       </c>
       <c r="E300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B301">
@@ -6478,8 +6479,8 @@
         <v>7</v>
       </c>
       <c r="D301">
-        <f ca="1">(VLOOKUP(A301,real,IF(C301="n",2,IF(C301="e",3,IF(C301="s",4,5))))+(RAND()-0.5)*0.1)*(1+E301*1.25)</f>
-        <v>26.985738738490284</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>26.944620856366203</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -6487,7 +6488,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B302">
@@ -6497,16 +6498,16 @@
         <v>4</v>
       </c>
       <c r="D302">
-        <f ca="1">(VLOOKUP(A302,real,IF(C302="n",2,IF(C302="e",3,IF(C302="s",4,5))))+(RAND()-0.5)*0.1)*(1+E302*1.25)</f>
-        <v>30.261594329661769</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30.277946311365966</v>
       </c>
       <c r="E302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B303">
@@ -6516,16 +6517,16 @@
         <v>5</v>
       </c>
       <c r="D303">
-        <f ca="1">(VLOOKUP(A303,real,IF(C303="n",2,IF(C303="e",3,IF(C303="s",4,5))))+(RAND()-0.5)*0.1)*(1+E303*1.25)</f>
-        <v>40.74284809909156</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.719799000351863</v>
       </c>
       <c r="E303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B304">
@@ -6535,16 +6536,16 @@
         <v>6</v>
       </c>
       <c r="D304">
-        <f ca="1">(VLOOKUP(A304,real,IF(C304="n",2,IF(C304="e",3,IF(C304="s",4,5))))+(RAND()-0.5)*0.1)*(1+E304*1.25)</f>
-        <v>32.940867380265367</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32.923795160740632</v>
       </c>
       <c r="E304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1635509830</v>
       </c>
       <c r="B305">
@@ -6554,15 +6555,21 @@
         <v>7</v>
       </c>
       <c r="D305">
-        <f ca="1">(VLOOKUP(A305,real,IF(C305="n",2,IF(C305="e",3,IF(C305="s",4,5))))+(RAND()-0.5)*0.1)*(1+E305*1.25)</f>
-        <v>26.969869662880519</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>26.959896826231038</v>
       </c>
       <c r="E305">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E305"/>
+  <autoFilter ref="A1:E305">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="n"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>